--- a/Code/Results/Cases/Case_2_47/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_47/res_line/pl_mw.xlsx
@@ -412,22 +412,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.678546485100185</v>
+        <v>3.678546485100355</v>
       </c>
       <c r="C2">
-        <v>0.6648006758131544</v>
+        <v>0.6648006758131828</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2856593898341728</v>
+        <v>0.2856593898342155</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>2.507906158341484</v>
+        <v>2.507906158341513</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -439,7 +439,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.4905474003958545</v>
+        <v>0.4905474003958901</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.159011095116853</v>
+        <v>3.159011095117023</v>
       </c>
       <c r="C3">
-        <v>0.5736141030309057</v>
+        <v>0.5736141030306499</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2448941010655261</v>
+        <v>0.2448941010655759</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>2.201720952894931</v>
+        <v>2.201720952894945</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -477,7 +477,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.4198416072492677</v>
+        <v>0.4198416072492748</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.846644849176471</v>
+        <v>2.846644849176414</v>
       </c>
       <c r="C4">
-        <v>0.5186315642567365</v>
+        <v>0.5186315642565091</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2205940178365111</v>
+        <v>0.2205940178364756</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
@@ -515,7 +515,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.3775309212554205</v>
+        <v>0.3775309212554134</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.720749507403411</v>
+        <v>2.720749507403355</v>
       </c>
       <c r="C5">
-        <v>0.4964307555566165</v>
+        <v>0.4964307555564176</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2108471261336362</v>
+        <v>0.2108471261336433</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>1.949632642223719</v>
+        <v>1.949632642223676</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3605217063978756</v>
+        <v>0.3605217063978827</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.699921691230884</v>
+        <v>2.6999216912306</v>
       </c>
       <c r="C6">
-        <v>0.4927554149022058</v>
+        <v>0.492755414901751</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2092373024174847</v>
+        <v>0.2092373024174776</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
         <v>1.93780513791333</v>
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.844941661832365</v>
+        <v>2.844941661832422</v>
       </c>
       <c r="C7">
-        <v>0.5183313855793017</v>
+        <v>0.5183313855788185</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2204619724957055</v>
+        <v>0.22046197249567</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>1.139311062524627</v>
       </c>
       <c r="G7">
-        <v>2.020453325536792</v>
+        <v>2.020453325536806</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -640,10 +640,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.497861057738191</v>
+        <v>3.497861057738135</v>
       </c>
       <c r="C8">
-        <v>0.6331198302034409</v>
+        <v>0.6331198302034693</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.4659105392221292</v>
+        <v>0.4659105392221079</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,10 +678,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.845051247379558</v>
+        <v>4.845051247379615</v>
       </c>
       <c r="C9">
-        <v>0.8687405683348857</v>
+        <v>0.8687405683349141</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -693,7 +693,7 @@
         <v>1.895061171845313</v>
       </c>
       <c r="G9">
-        <v>3.220774297482677</v>
+        <v>3.220774297482706</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -716,22 +716,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.899185158380476</v>
+        <v>5.899185158380419</v>
       </c>
       <c r="C10">
-        <v>1.052512807375848</v>
+        <v>1.052512807375365</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.4642870536779142</v>
+        <v>0.4642870536778574</v>
       </c>
       <c r="F10">
-        <v>2.275587181990787</v>
+        <v>2.275587181990801</v>
       </c>
       <c r="G10">
-        <v>3.891573483890852</v>
+        <v>3.89157348389088</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.7972566824501186</v>
+        <v>0.797256682450076</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -757,19 +757,19 @@
         <v>6.399376479464877</v>
       </c>
       <c r="C11">
-        <v>1.139641315535158</v>
+        <v>1.139641315535016</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.5054293544950283</v>
+        <v>0.5054293544950639</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>4.217894765213941</v>
+        <v>4.217894765214055</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.8673238655965037</v>
+        <v>0.8673238655964752</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.592456075110249</v>
+        <v>6.592456075110363</v>
       </c>
       <c r="C12">
         <v>1.173270258663223</v>
@@ -807,7 +807,7 @@
         <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>4.345174451838517</v>
+        <v>4.345174451838545</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.8944666543005866</v>
+        <v>0.8944666543005582</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>6.550697089956088</v>
       </c>
       <c r="C13">
-        <v>1.165997072460897</v>
+        <v>1.165997072461124</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>0.5179388226961024</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>2.504295469236098</v>
       </c>
       <c r="G13">
-        <v>4.317585436580544</v>
+        <v>4.317585436580629</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.415183219895027</v>
+        <v>6.415183219895084</v>
       </c>
       <c r="C14">
-        <v>1.142394425357509</v>
+        <v>1.142394425357736</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.5067347169943943</v>
+        <v>0.5067347169943801</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>4.228287501646093</v>
+        <v>4.228287501646037</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.8695439371530256</v>
+        <v>0.8695439371531251</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.332677938572999</v>
+        <v>6.332677938572942</v>
       </c>
       <c r="C15">
-        <v>1.128024118704104</v>
+        <v>1.128024118703905</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.4999247110081413</v>
+        <v>0.4999247110081271</v>
       </c>
       <c r="F15">
         <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>4.174095045536177</v>
+        <v>4.17409504553612</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.866968581659876</v>
+        <v>5.866968581659762</v>
       </c>
       <c r="C16">
-        <v>1.04690008602941</v>
+        <v>1.046900086029495</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.4616481591742101</v>
+        <v>0.4616481591742669</v>
       </c>
       <c r="F16">
         <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>3.870727387384278</v>
+        <v>3.870727387384221</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.7927560605979238</v>
+        <v>0.7927560605978812</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,22 +982,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.587015208998025</v>
+        <v>5.587015208998139</v>
       </c>
       <c r="C17">
-        <v>0.998119799336223</v>
+        <v>0.9981197993364788</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.4387735904487116</v>
+        <v>0.4387735904487471</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>3.690475330521281</v>
+        <v>3.690475330521224</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.7537095569942736</v>
+        <v>0.7537095569942664</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.427888972212202</v>
+        <v>5.427888972212088</v>
       </c>
       <c r="C18">
-        <v>0.9703858487389425</v>
+        <v>0.9703858487390278</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.4258172706971806</v>
+        <v>0.4258172706971379</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>2.107028586650742</v>
       </c>
       <c r="G18">
-        <v>3.588745081626229</v>
+        <v>3.588745081626115</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1047,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.7315655718122827</v>
+        <v>0.7315655718122898</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.37431814420313</v>
+        <v>5.374318144202846</v>
       </c>
       <c r="C19">
-        <v>0.9610476521714304</v>
+        <v>0.961047652171203</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.4214629457451977</v>
+        <v>0.4214629457451906</v>
       </c>
       <c r="F19">
         <v>2.087706772602971</v>
       </c>
       <c r="G19">
-        <v>3.554617084059771</v>
+        <v>3.554617084059714</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.7241188495901625</v>
+        <v>0.7241188495901483</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.616615944758053</v>
+        <v>5.616615944757939</v>
       </c>
       <c r="C20">
-        <v>1.003278256549521</v>
+        <v>1.003278256548811</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.4411873941021085</v>
+        <v>0.441187394102073</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>3.709457684267107</v>
+        <v>3.709457684267022</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1123,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.757832802884721</v>
+        <v>0.7578328028847281</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,10 +1134,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.454881086724981</v>
+        <v>6.454881086724811</v>
       </c>
       <c r="C21">
-        <v>1.149308696246607</v>
+        <v>1.149308696246294</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1149,7 +1149,7 @@
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>4.254409815604873</v>
+        <v>4.254409815604788</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1161,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.8751211216668651</v>
+        <v>0.8751211216668793</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,10 +1172,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.024554597295037</v>
+        <v>7.02455459729498</v>
       </c>
       <c r="C22">
-        <v>1.248532028791999</v>
+        <v>1.248532028791914</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1184,10 +1184,10 @@
         <v>0.5572990100309596</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
-        <v>4.632603717309877</v>
+        <v>4.632603717309905</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.9554045671923745</v>
+        <v>0.9554045671923461</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.718241530872035</v>
+        <v>6.718241530872092</v>
       </c>
       <c r="C23">
-        <v>1.195178483208252</v>
+        <v>1.195178483208025</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.5318233024555994</v>
+        <v>0.5318233024556065</v>
       </c>
       <c r="F23">
-        <v>2.562285531758789</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>4.428479883253289</v>
+        <v>4.42847988325326</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.9121781711446602</v>
+        <v>0.9121781711446459</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,22 +1248,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.60322782549008</v>
+        <v>5.603227825490023</v>
       </c>
       <c r="C24">
-        <v>1.000945160210989</v>
+        <v>1.000945160211018</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.4400955126988819</v>
+        <v>0.440095512698889</v>
       </c>
       <c r="F24">
-        <v>2.170038921573038</v>
+        <v>2.170038921573024</v>
       </c>
       <c r="G24">
-        <v>3.70086989526655</v>
+        <v>3.700869895266521</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.7559677438437902</v>
+        <v>0.7559677438438115</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,22 +1286,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.471248483510635</v>
+        <v>4.471248483510408</v>
       </c>
       <c r="C25">
-        <v>0.8034787846726203</v>
+        <v>0.8034787846729614</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.3486404157933265</v>
+        <v>0.3486404157933052</v>
       </c>
       <c r="F25">
         <v>1.757113814925404</v>
       </c>
       <c r="G25">
-        <v>2.988771101330016</v>
+        <v>2.988771101330002</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.5992092533377971</v>
+        <v>0.5992092533377544</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_47/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_47/res_line/pl_mw.xlsx
@@ -412,22 +412,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.678546485100355</v>
+        <v>3.678546485100185</v>
       </c>
       <c r="C2">
-        <v>0.6648006758131828</v>
+        <v>0.6648006758131544</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2856593898342155</v>
+        <v>0.2856593898341728</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>2.507906158341513</v>
+        <v>2.507906158341484</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -439,7 +439,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.4905474003958901</v>
+        <v>0.4905474003958545</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.159011095117023</v>
+        <v>3.159011095116853</v>
       </c>
       <c r="C3">
-        <v>0.5736141030306499</v>
+        <v>0.5736141030309057</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2448941010655759</v>
+        <v>0.2448941010655261</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>2.201720952894945</v>
+        <v>2.201720952894931</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -477,7 +477,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.4198416072492748</v>
+        <v>0.4198416072492677</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.846644849176414</v>
+        <v>2.846644849176471</v>
       </c>
       <c r="C4">
-        <v>0.5186315642565091</v>
+        <v>0.5186315642567365</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2205940178364756</v>
+        <v>0.2205940178365111</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
@@ -515,7 +515,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.3775309212554134</v>
+        <v>0.3775309212554205</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.720749507403355</v>
+        <v>2.720749507403411</v>
       </c>
       <c r="C5">
-        <v>0.4964307555564176</v>
+        <v>0.4964307555566165</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2108471261336433</v>
+        <v>0.2108471261336362</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>1.949632642223676</v>
+        <v>1.949632642223719</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3605217063978827</v>
+        <v>0.3605217063978756</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.6999216912306</v>
+        <v>2.699921691230884</v>
       </c>
       <c r="C6">
-        <v>0.492755414901751</v>
+        <v>0.4927554149022058</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2092373024174776</v>
+        <v>0.2092373024174847</v>
       </c>
       <c r="F6">
-        <v>1.082851457025455</v>
+        <v>1.082851457025441</v>
       </c>
       <c r="G6">
         <v>1.93780513791333</v>
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.844941661832422</v>
+        <v>2.844941661832365</v>
       </c>
       <c r="C7">
-        <v>0.5183313855788185</v>
+        <v>0.5183313855793017</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.22046197249567</v>
+        <v>0.2204619724957055</v>
       </c>
       <c r="F7">
-        <v>1.139311062524627</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>2.020453325536806</v>
+        <v>2.020453325536792</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -640,10 +640,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.497861057738135</v>
+        <v>3.497861057738191</v>
       </c>
       <c r="C8">
-        <v>0.6331198302034693</v>
+        <v>0.6331198302034409</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.4659105392221079</v>
+        <v>0.4659105392221292</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,10 +678,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.845051247379615</v>
+        <v>4.845051247379558</v>
       </c>
       <c r="C9">
-        <v>0.8687405683349141</v>
+        <v>0.8687405683348857</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -693,7 +693,7 @@
         <v>1.895061171845313</v>
       </c>
       <c r="G9">
-        <v>3.220774297482706</v>
+        <v>3.220774297482677</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -716,22 +716,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.899185158380419</v>
+        <v>5.899185158380476</v>
       </c>
       <c r="C10">
-        <v>1.052512807375365</v>
+        <v>1.052512807375848</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.4642870536778574</v>
+        <v>0.4642870536779142</v>
       </c>
       <c r="F10">
-        <v>2.275587181990801</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>3.89157348389088</v>
+        <v>3.891573483890852</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.797256682450076</v>
+        <v>0.7972566824501186</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -757,19 +757,19 @@
         <v>6.399376479464877</v>
       </c>
       <c r="C11">
-        <v>1.139641315535016</v>
+        <v>1.139641315535158</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.5054293544950639</v>
+        <v>0.5054293544950283</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>4.217894765214055</v>
+        <v>4.217894765213941</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.8673238655964752</v>
+        <v>0.8673238655965037</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.592456075110363</v>
+        <v>6.592456075110249</v>
       </c>
       <c r="C12">
         <v>1.173270258663223</v>
@@ -807,7 +807,7 @@
         <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>4.345174451838545</v>
+        <v>4.345174451838517</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.8944666543005582</v>
+        <v>0.8944666543005866</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>6.550697089956088</v>
       </c>
       <c r="C13">
-        <v>1.165997072461124</v>
+        <v>1.165997072460897</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>0.5179388226961024</v>
       </c>
       <c r="F13">
-        <v>2.504295469236098</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>4.317585436580629</v>
+        <v>4.317585436580544</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.415183219895084</v>
+        <v>6.415183219895027</v>
       </c>
       <c r="C14">
-        <v>1.142394425357736</v>
+        <v>1.142394425357509</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.5067347169943801</v>
+        <v>0.5067347169943943</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>4.228287501646037</v>
+        <v>4.228287501646093</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.8695439371531251</v>
+        <v>0.8695439371530256</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.332677938572942</v>
+        <v>6.332677938572999</v>
       </c>
       <c r="C15">
-        <v>1.128024118703905</v>
+        <v>1.128024118704104</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.4999247110081271</v>
+        <v>0.4999247110081413</v>
       </c>
       <c r="F15">
         <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>4.17409504553612</v>
+        <v>4.174095045536177</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.866968581659762</v>
+        <v>5.866968581659876</v>
       </c>
       <c r="C16">
-        <v>1.046900086029495</v>
+        <v>1.04690008602941</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.4616481591742669</v>
+        <v>0.4616481591742101</v>
       </c>
       <c r="F16">
         <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>3.870727387384221</v>
+        <v>3.870727387384278</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.7927560605978812</v>
+        <v>0.7927560605979238</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,22 +982,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.587015208998139</v>
+        <v>5.587015208998025</v>
       </c>
       <c r="C17">
-        <v>0.9981197993364788</v>
+        <v>0.998119799336223</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.4387735904487471</v>
+        <v>0.4387735904487116</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>3.690475330521224</v>
+        <v>3.690475330521281</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.7537095569942664</v>
+        <v>0.7537095569942736</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.427888972212088</v>
+        <v>5.427888972212202</v>
       </c>
       <c r="C18">
-        <v>0.9703858487390278</v>
+        <v>0.9703858487389425</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.4258172706971379</v>
+        <v>0.4258172706971806</v>
       </c>
       <c r="F18">
-        <v>2.107028586650742</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>3.588745081626115</v>
+        <v>3.588745081626229</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1047,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.7315655718122898</v>
+        <v>0.7315655718122827</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.374318144202846</v>
+        <v>5.37431814420313</v>
       </c>
       <c r="C19">
-        <v>0.961047652171203</v>
+        <v>0.9610476521714304</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.4214629457451906</v>
+        <v>0.4214629457451977</v>
       </c>
       <c r="F19">
         <v>2.087706772602971</v>
       </c>
       <c r="G19">
-        <v>3.554617084059714</v>
+        <v>3.554617084059771</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.7241188495901483</v>
+        <v>0.7241188495901625</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.616615944757939</v>
+        <v>5.616615944758053</v>
       </c>
       <c r="C20">
-        <v>1.003278256548811</v>
+        <v>1.003278256549521</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.441187394102073</v>
+        <v>0.4411873941021085</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>3.709457684267022</v>
+        <v>3.709457684267107</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1123,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.7578328028847281</v>
+        <v>0.757832802884721</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,10 +1134,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.454881086724811</v>
+        <v>6.454881086724981</v>
       </c>
       <c r="C21">
-        <v>1.149308696246294</v>
+        <v>1.149308696246607</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1149,7 +1149,7 @@
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>4.254409815604788</v>
+        <v>4.254409815604873</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1161,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.8751211216668793</v>
+        <v>0.8751211216668651</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,10 +1172,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.02455459729498</v>
+        <v>7.024554597295037</v>
       </c>
       <c r="C22">
-        <v>1.248532028791914</v>
+        <v>1.248532028791999</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1184,10 +1184,10 @@
         <v>0.5572990100309596</v>
       </c>
       <c r="F22">
-        <v>2.667416158031969</v>
+        <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>4.632603717309905</v>
+        <v>4.632603717309877</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.9554045671923461</v>
+        <v>0.9554045671923745</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.718241530872092</v>
+        <v>6.718241530872035</v>
       </c>
       <c r="C23">
-        <v>1.195178483208025</v>
+        <v>1.195178483208252</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.5318233024556065</v>
+        <v>0.5318233024555994</v>
       </c>
       <c r="F23">
-        <v>2.562285531758775</v>
+        <v>2.562285531758789</v>
       </c>
       <c r="G23">
-        <v>4.42847988325326</v>
+        <v>4.428479883253289</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.9121781711446459</v>
+        <v>0.9121781711446602</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,22 +1248,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.603227825490023</v>
+        <v>5.60322782549008</v>
       </c>
       <c r="C24">
-        <v>1.000945160211018</v>
+        <v>1.000945160210989</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.440095512698889</v>
+        <v>0.4400955126988819</v>
       </c>
       <c r="F24">
-        <v>2.170038921573024</v>
+        <v>2.170038921573038</v>
       </c>
       <c r="G24">
-        <v>3.700869895266521</v>
+        <v>3.70086989526655</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.7559677438438115</v>
+        <v>0.7559677438437902</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,22 +1286,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.471248483510408</v>
+        <v>4.471248483510635</v>
       </c>
       <c r="C25">
-        <v>0.8034787846729614</v>
+        <v>0.8034787846726203</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.3486404157933052</v>
+        <v>0.3486404157933265</v>
       </c>
       <c r="F25">
         <v>1.757113814925404</v>
       </c>
       <c r="G25">
-        <v>2.988771101330002</v>
+        <v>2.988771101330016</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.5992092533377544</v>
+        <v>0.5992092533377971</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_47/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_47/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,31 +406,34 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.678546485100185</v>
+        <v>3.678108439593018</v>
       </c>
       <c r="C2">
-        <v>0.6648006758131544</v>
+        <v>0.664620425625742</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2856593898341728</v>
+        <v>0.2856421783137577</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>2.507906158341484</v>
+        <v>0.8143088937342355</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.683430865147926</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -439,36 +442,39 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.4905474003958545</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.490505666951087</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.159011095116853</v>
+        <v>3.15873708987408</v>
       </c>
       <c r="C3">
-        <v>0.5736141030309057</v>
+        <v>0.5734912168993276</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2448941010655261</v>
+        <v>0.2448828807749663</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>2.201720952894931</v>
+        <v>0.7092806927171864</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1.484225207765533</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -477,36 +483,39 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.4198416072492677</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.4198155354838846</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.846644849176471</v>
+        <v>2.846453362027262</v>
       </c>
       <c r="C4">
-        <v>0.5186315642567365</v>
+        <v>0.5185398555240113</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2205940178365111</v>
+        <v>0.2205858486601002</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>2.021428041440416</v>
+        <v>0.6473260771717122</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1.367052176575356</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -515,36 +524,39 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.3775309212554205</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.3775126528753319</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.720749507403411</v>
+        <v>2.720587792433435</v>
       </c>
       <c r="C5">
-        <v>0.4964307555566165</v>
+        <v>0.4963509049863433</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2108471261336362</v>
+        <v>0.2108400786265889</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>1.949632642223719</v>
+        <v>0.6226278029826204</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1.320423154069744</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -553,36 +565,39 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3605217063978756</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.3605062449215382</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.699921691230884</v>
+        <v>2.699764706109761</v>
       </c>
       <c r="C6">
-        <v>0.4927554149022058</v>
+        <v>0.4926774867117842</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2092373024174847</v>
+        <v>0.2092304347350264</v>
       </c>
       <c r="F6">
         <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>1.93780513791333</v>
+        <v>0.6185574188494485</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1.312743394697847</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -591,36 +606,39 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.3577101891215619</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.3576951733484179</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.844941661832365</v>
+        <v>2.844750590935348</v>
       </c>
       <c r="C7">
-        <v>0.5183313855793017</v>
+        <v>0.5182398399925319</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2204619724957055</v>
+        <v>0.2204538188966723</v>
       </c>
       <c r="F7">
         <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>2.020453325536792</v>
+        <v>0.6469908753674645</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1.366419000952064</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -629,36 +647,39 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.3773006419069844</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.3772824127932282</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.497861057738191</v>
+        <v>3.497483824541575</v>
       </c>
       <c r="C8">
-        <v>0.6331198302034409</v>
+        <v>0.6329603096042717</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2714341056639853</v>
+        <v>0.2714191143390181</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>2.400566593536311</v>
+        <v>0.7775130732497928</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.613567744020287</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -667,36 +688,39 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.4659105392221292</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.4658746369959914</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.845051247379558</v>
+        <v>4.844124347963088</v>
       </c>
       <c r="C9">
-        <v>0.8687405683348857</v>
+        <v>0.8684062717667302</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.3786489552581926</v>
+        <v>0.3786134490705209</v>
       </c>
       <c r="F9">
         <v>1.895061171845313</v>
       </c>
       <c r="G9">
-        <v>3.220774297482677</v>
+        <v>1.058161201186749</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2.14799604425626</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -705,36 +729,39 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.6507692207335367</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.6506795464614115</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.899185158380476</v>
+        <v>5.897669789979204</v>
       </c>
       <c r="C10">
-        <v>1.052512807375848</v>
+        <v>1.052008112483065</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.4642870536779142</v>
+        <v>0.4642280675489232</v>
       </c>
       <c r="F10">
         <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>3.891573483890852</v>
+        <v>1.287003567492093</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2.585835447489814</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -743,36 +770,39 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.7972566824501186</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.7971070866990999</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.399376479464877</v>
+        <v>6.397530643671303</v>
       </c>
       <c r="C11">
-        <v>1.139641315535158</v>
+        <v>1.13904478752255</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.5054293544950283</v>
+        <v>0.5053564776870161</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>4.217894765213941</v>
+        <v>1.398162735161009</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2.799007813763041</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -781,36 +811,39 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.8673238655965037</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0.8671397140301309</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.592456075110249</v>
+        <v>6.590473452996605</v>
       </c>
       <c r="C12">
-        <v>1.173270258663223</v>
+        <v>1.172636301206779</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.521396088935056</v>
+        <v>0.5213173211229574</v>
       </c>
       <c r="F12">
         <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>4.345174451838517</v>
+        <v>1.441494461497541</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2.882180996274002</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -819,36 +852,39 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.8944666543005866</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0.8942680268972083</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.550697089956088</v>
+        <v>6.548744495415235</v>
       </c>
       <c r="C13">
-        <v>1.165997072460897</v>
+        <v>1.165371305525639</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.5179388226961024</v>
+        <v>0.5178613550219993</v>
       </c>
       <c r="F13">
         <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>4.317585436580544</v>
+        <v>1.432103065121737</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2.86415127172711</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -857,36 +893,39 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.888591711167976</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0.8883962698728425</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.415183219895027</v>
+        <v>6.413326381813363</v>
       </c>
       <c r="C14">
-        <v>1.142394425357509</v>
+        <v>1.14179487522884</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.5067347169943943</v>
+        <v>0.5066613693570829</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>4.228287501646093</v>
+        <v>1.401701400361901</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2.805798600561275</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -895,36 +934,39 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.8695439371530256</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0.8693586248663792</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.332677938572999</v>
+        <v>6.33087814650338</v>
       </c>
       <c r="C15">
-        <v>1.128024118704104</v>
+        <v>1.127440260859885</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.4999247110081413</v>
+        <v>0.4998537988203395</v>
       </c>
       <c r="F15">
         <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>4.174095045536177</v>
+        <v>1.383248172873721</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2.770389413877552</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -933,36 +975,39 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.8579599425084865</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0.8577806414733828</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.866968581659876</v>
+        <v>5.865473339967593</v>
       </c>
       <c r="C16">
-        <v>1.04690008602941</v>
+        <v>1.046401057385935</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.4616481591742101</v>
+        <v>0.4615900030416142</v>
       </c>
       <c r="F16">
         <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>3.870727387384278</v>
+        <v>1.279899133062344</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2.572221110185154</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -971,36 +1016,39 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.7927560605979238</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.7926085495533997</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.587015208998025</v>
+        <v>5.585689083681132</v>
       </c>
       <c r="C17">
-        <v>0.998119799336223</v>
+        <v>0.9976687698301134</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.4387735904487116</v>
+        <v>0.4387223340774113</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>3.690475330521281</v>
+        <v>1.218450547228798</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2.454519973325858</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1009,36 +1057,39 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.7537095569942736</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.7535794682693577</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.427888972212202</v>
+        <v>5.426654403656357</v>
       </c>
       <c r="C18">
-        <v>0.9703858487389425</v>
+        <v>0.9699611232294387</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.4258172706971806</v>
+        <v>0.4257696936510342</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>3.588745081626229</v>
+        <v>1.183755525796101</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2.388108120110587</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1047,36 +1098,39 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.7315655718122827</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.7314448426667539</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.37431814420313</v>
+        <v>5.373113661786419</v>
       </c>
       <c r="C19">
-        <v>0.9610476521714304</v>
+        <v>0.9606316243412891</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.4214629457451977</v>
+        <v>0.4214165690583798</v>
       </c>
       <c r="F19">
         <v>2.087706772602971</v>
       </c>
       <c r="G19">
-        <v>3.554617084059771</v>
+        <v>1.172113697181629</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2.365831304475222</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1085,36 +1139,39 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.7241188495901625</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.7240011845924528</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.616615944758053</v>
+        <v>5.61527242475421</v>
       </c>
       <c r="C20">
-        <v>1.003278256549521</v>
+        <v>1.002822256183578</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.4411873941021085</v>
+        <v>0.4411354342233054</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>3.709457684267107</v>
+        <v>1.224923254771909</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2.466913406594955</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1123,36 +1180,39 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.757832802884721</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.7577009300994533</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.454881086724981</v>
+        <v>6.452996463496675</v>
       </c>
       <c r="C21">
-        <v>1.149308696246607</v>
+        <v>1.148701523253351</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.5100144713011048</v>
+        <v>0.5099399322781366</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>4.254409815604873</v>
+        <v>1.410595488529225</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2.822867778136299</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1161,36 +1221,39 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.8751211216668651</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.8749328752506216</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.024554597295037</v>
+        <v>7.022246609875197</v>
       </c>
       <c r="C22">
-        <v>1.248532028791999</v>
+        <v>1.247810169743872</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.5572990100309596</v>
+        <v>0.557205910247653</v>
       </c>
       <c r="F22">
         <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>4.632603717309877</v>
+        <v>1.539300341052183</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>3.070056212807856</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1199,36 +1262,39 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.9554045671923745</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.9551711257871034</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.718241530872035</v>
+        <v>6.716166966413823</v>
       </c>
       <c r="C23">
-        <v>1.195178483208252</v>
+        <v>1.194519533341776</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.5318233024555994</v>
+        <v>0.5317405297385065</v>
       </c>
       <c r="F23">
         <v>2.562285531758789</v>
       </c>
       <c r="G23">
-        <v>4.428479883253289</v>
+        <v>1.469848162614625</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2.936625893980391</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1237,36 +1303,39 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.9121781711446602</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.911969759412699</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.60322782549008</v>
+        <v>5.601892187100304</v>
       </c>
       <c r="C24">
-        <v>1.000945160210989</v>
+        <v>1.00049141115116</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.4400955126988819</v>
+        <v>0.440043871759201</v>
       </c>
       <c r="F24">
         <v>2.170038921573038</v>
       </c>
       <c r="G24">
-        <v>3.70086989526655</v>
+        <v>1.221994989540491</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2.46130645467548</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1275,36 +1344,39 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.7559677438437902</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.7558366796537328</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.471248483510635</v>
+        <v>4.47049646138322</v>
       </c>
       <c r="C25">
-        <v>0.8034787846726203</v>
+        <v>0.8031977036352487</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.3486404157933265</v>
+        <v>0.3486115700880035</v>
       </c>
       <c r="F25">
         <v>1.757113814925404</v>
       </c>
       <c r="G25">
-        <v>2.988771101330016</v>
+        <v>0.9788862204745641</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1.996705277796906</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1313,9 +1385,12 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.5992092533377971</v>
+        <v>0</v>
       </c>
       <c r="L25">
+        <v>0.5991369384428609</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_47/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_47/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.678108439593018</v>
+        <v>4.792895131551688</v>
       </c>
       <c r="C2">
-        <v>0.664620425625742</v>
+        <v>1.396633933692158</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2856421783137577</v>
+        <v>0.2150769661361593</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>3.608700645197018</v>
       </c>
       <c r="G2">
-        <v>0.8143088937342355</v>
+        <v>0.0007702628024344857</v>
       </c>
       <c r="H2">
-        <v>1.683430865147926</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.1725094698485989</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.490505666951087</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0.7962517789935148</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.15873708987408</v>
+        <v>4.122902548582033</v>
       </c>
       <c r="C3">
-        <v>0.5734912168993276</v>
+        <v>1.197224792946827</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2448828807749663</v>
+        <v>0.1892218120279097</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>3.199699464507603</v>
       </c>
       <c r="G3">
-        <v>0.7092806927171864</v>
+        <v>0.0007814530157713002</v>
       </c>
       <c r="H3">
-        <v>1.484225207765533</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.1533471862723204</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.4198155354838846</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>0.8386914495236653</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.846453362027262</v>
+        <v>3.721271542705267</v>
       </c>
       <c r="C4">
-        <v>0.5185398555240113</v>
+        <v>1.077702501171757</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2205858486601002</v>
+        <v>0.1735768888817049</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>2.958058590551957</v>
       </c>
       <c r="G4">
-        <v>0.6473260771717122</v>
+        <v>0.0007884556449515578</v>
       </c>
       <c r="H4">
-        <v>1.367052176575356</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.1421770273048679</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3775126528753319</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>0.8669629517338819</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.720587792433435</v>
+        <v>3.559685493975223</v>
       </c>
       <c r="C5">
-        <v>0.4963509049863433</v>
+        <v>1.029613074994586</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2108400786265889</v>
+        <v>0.1672521718683413</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>2.861680557970431</v>
       </c>
       <c r="G5">
-        <v>0.6226278029826204</v>
+        <v>0.0007913458927801174</v>
       </c>
       <c r="H5">
-        <v>1.320423154069744</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.1377560132047293</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3605062449215382</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>0.878998289190271</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.699764706109761</v>
+        <v>3.532969967312283</v>
       </c>
       <c r="C6">
-        <v>0.4926774867117842</v>
+        <v>1.021661967521311</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2092304347350264</v>
+        <v>0.1662048247799106</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>2.845795476116905</v>
       </c>
       <c r="G6">
-        <v>0.6185574188494485</v>
+        <v>0.0007918281227069501</v>
       </c>
       <c r="H6">
-        <v>1.312743394697847</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.1370293034479673</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3576951733484179</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>0.8810266793482029</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.844750590935348</v>
+        <v>3.719084365752224</v>
       </c>
       <c r="C7">
-        <v>0.5182398399925319</v>
+        <v>1.077051596819956</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2204538188966723</v>
+        <v>0.1734913951347679</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>2.956750694192209</v>
       </c>
       <c r="G7">
-        <v>0.6469908753674645</v>
+        <v>0.0007884944713034399</v>
       </c>
       <c r="H7">
-        <v>1.366419000952064</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.1421168972431488</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3772824127932282</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>0.8671232336051133</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.497483824541575</v>
+        <v>4.559622892419611</v>
       </c>
       <c r="C8">
-        <v>0.6329603096042717</v>
+        <v>1.327198118366709</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2714191143390181</v>
+        <v>0.2061097464129276</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>3.465520891644672</v>
       </c>
       <c r="G8">
-        <v>0.7775130732497928</v>
+        <v>0.0007740960517417314</v>
       </c>
       <c r="H8">
-        <v>1.613567744020287</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.165766657299578</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.4658746369959914</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>0.810398691434095</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.844124347963088</v>
+        <v>6.304489503691968</v>
       </c>
       <c r="C9">
-        <v>0.8684062717667302</v>
+        <v>1.846950283484603</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.3786134490705209</v>
+        <v>0.2722734382263639</v>
       </c>
       <c r="F9">
-        <v>1.895061171845313</v>
+        <v>4.553722737574958</v>
       </c>
       <c r="G9">
-        <v>1.058161201186749</v>
+        <v>0.000746726149431387</v>
       </c>
       <c r="H9">
-        <v>2.14799604425626</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.217853404893674</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.6506795464614115</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>0.7189145695276338</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.897669789979204</v>
+        <v>7.677048073090077</v>
       </c>
       <c r="C10">
-        <v>1.052008112483065</v>
+        <v>2.256698586625873</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.4642280675489232</v>
+        <v>0.3228326466680542</v>
       </c>
       <c r="F10">
-        <v>2.275587181990787</v>
+        <v>5.433438626451135</v>
       </c>
       <c r="G10">
-        <v>1.287003567492093</v>
+        <v>0.0007268488811152699</v>
       </c>
       <c r="H10">
-        <v>2.585835447489814</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.2612327269300607</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.7971070866990999</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>0.6673609320118175</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.397530643671303</v>
+        <v>8.329996730327537</v>
       </c>
       <c r="C11">
-        <v>1.13904478752255</v>
+        <v>2.451990771463159</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.5053564776870161</v>
+        <v>0.3464227495278962</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>5.858032013796333</v>
       </c>
       <c r="G11">
-        <v>1.398162735161009</v>
+        <v>0.0007177741639154081</v>
       </c>
       <c r="H11">
-        <v>2.799007813763041</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.2825359247917874</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.8671397140301309</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>0.6483269378479406</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.590473452996605</v>
+        <v>8.582280368082763</v>
       </c>
       <c r="C12">
-        <v>1.172636301206779</v>
+        <v>2.527518114827217</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.5213173211229574</v>
+        <v>0.3554574834965649</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>6.023047142607709</v>
       </c>
       <c r="G12">
-        <v>1.441494461497541</v>
+        <v>0.0007143246162268913</v>
       </c>
       <c r="H12">
-        <v>2.882180996274002</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.290876737013761</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.8942680268972083</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>0.6418617116868717</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.548744495415235</v>
+        <v>8.527706377557593</v>
       </c>
       <c r="C13">
-        <v>1.165371305525639</v>
+        <v>2.51117655776028</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.5178613550219993</v>
+        <v>0.3535068693262247</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>5.987306958614795</v>
       </c>
       <c r="G13">
-        <v>1.432103065121737</v>
+        <v>0.0007150682765335166</v>
       </c>
       <c r="H13">
-        <v>2.86415127172711</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.289067344619184</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.8883962698728425</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>0.6432191396613547</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.413326381813363</v>
+        <v>8.350645594543266</v>
       </c>
       <c r="C14">
-        <v>1.14179487522884</v>
+        <v>2.458170986091545</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.5066613693570829</v>
+        <v>0.3471638976982163</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>5.871518465822987</v>
       </c>
       <c r="G14">
-        <v>1.401701400361901</v>
+        <v>0.0007174906858359458</v>
       </c>
       <c r="H14">
-        <v>2.805798600561275</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.283216330877849</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.8693586248663792</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>0.647779464163861</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.33087814650338</v>
+        <v>8.242875740745205</v>
       </c>
       <c r="C15">
-        <v>1.127440260859885</v>
+        <v>2.425918386782257</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.4998537988203395</v>
+        <v>0.3432924356298983</v>
       </c>
       <c r="F15">
-        <v>2.428326063136538</v>
+        <v>5.801169513406222</v>
       </c>
       <c r="G15">
-        <v>1.383248172873721</v>
+        <v>0.0007189724881541218</v>
       </c>
       <c r="H15">
-        <v>2.770389413877552</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.2796696629396678</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.8577806414733828</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>0.6506730557947122</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.865473339967593</v>
+        <v>7.635025576715179</v>
       </c>
       <c r="C16">
-        <v>1.046401057385935</v>
+        <v>2.244138681721154</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.4615900030416142</v>
+        <v>0.3213042248349396</v>
       </c>
       <c r="F16">
-        <v>2.264147245220144</v>
+        <v>5.406240053404218</v>
       </c>
       <c r="G16">
-        <v>1.279899133062344</v>
+        <v>0.0007274405943769047</v>
       </c>
       <c r="H16">
-        <v>2.572221110185154</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.2598759857860244</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.7926085495533997</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>0.6687024287101337</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.585689083681132</v>
+        <v>7.270043907589525</v>
       </c>
       <c r="C17">
-        <v>0.9976687698301134</v>
+        <v>2.135093106089357</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.4387223340774113</v>
+        <v>0.30797741353161</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>5.170685179429569</v>
       </c>
       <c r="G17">
-        <v>1.218450547228798</v>
+        <v>0.0007326216609276037</v>
       </c>
       <c r="H17">
-        <v>2.454519973325858</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.2481664687642819</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.7535794682693577</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>0.6809641581451586</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.426654403656357</v>
+        <v>7.062740354213361</v>
       </c>
       <c r="C18">
-        <v>0.9699611232294387</v>
+        <v>2.073189507735606</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.4257696936510342</v>
+        <v>0.3003665989066491</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>5.037446984128081</v>
       </c>
       <c r="G18">
-        <v>1.183755525796101</v>
+        <v>0.000735599213168257</v>
       </c>
       <c r="H18">
-        <v>2.388108120110587</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.2415758341209937</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.7314448426667539</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>0.6884250833198564</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.373113661786419</v>
+        <v>6.992976526917346</v>
       </c>
       <c r="C19">
-        <v>0.9606316243412891</v>
+        <v>2.052362198486605</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.4214165690583798</v>
+        <v>0.2977985905572851</v>
       </c>
       <c r="F19">
-        <v>2.087706772602971</v>
+        <v>4.992700944477292</v>
       </c>
       <c r="G19">
-        <v>1.172113697181629</v>
+        <v>0.000736607171004211</v>
       </c>
       <c r="H19">
-        <v>2.365831304475222</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.2393678446452867</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.7240011845924528</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>0.6910184253103324</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.61527242475421</v>
+        <v>7.30861914774664</v>
       </c>
       <c r="C20">
-        <v>1.002822256183578</v>
+        <v>2.146614735079822</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.4411354342233054</v>
+        <v>0.3093903316981326</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>5.195523087854525</v>
       </c>
       <c r="G20">
-        <v>1.224923254771909</v>
+        <v>0.000732070438355233</v>
       </c>
       <c r="H20">
-        <v>2.466913406594955</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.2493977079548699</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.7577009300994533</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>0.6796159098658592</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.452996463496675</v>
+        <v>8.402507976108382</v>
       </c>
       <c r="C21">
-        <v>1.148701523253351</v>
+        <v>2.473694617608658</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.5099399322781366</v>
+        <v>0.3490240737246424</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>5.905407058266661</v>
       </c>
       <c r="G21">
-        <v>1.410595488529225</v>
+        <v>0.0007167795985473251</v>
       </c>
       <c r="H21">
-        <v>2.822867778136299</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.2849270528525949</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.8749328752506216</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>0.6464188680973137</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.022246609875197</v>
+        <v>9.147295625541005</v>
       </c>
       <c r="C22">
-        <v>1.247810169743872</v>
+        <v>2.696822166745903</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.557205910247653</v>
+        <v>0.3755298254918955</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>6.394465119252573</v>
       </c>
       <c r="G22">
-        <v>1.539300341052183</v>
+        <v>0.0007067042340792367</v>
       </c>
       <c r="H22">
-        <v>3.070056212807856</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.3097733093901383</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.9551711257871034</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>0.6291178952097738</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.716166966413823</v>
+        <v>8.746700433379601</v>
       </c>
       <c r="C23">
-        <v>1.194519533341776</v>
+        <v>2.576763642454353</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.5317405297385065</v>
+        <v>0.3613216591330612</v>
       </c>
       <c r="F23">
-        <v>2.562285531758789</v>
+        <v>6.130870021677566</v>
       </c>
       <c r="G23">
-        <v>1.469848162614625</v>
+        <v>0.0007120924174066381</v>
       </c>
       <c r="H23">
-        <v>2.936625893980391</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.2963449890379906</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.911969759412699</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>0.6379079958892788</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.601892187100304</v>
+        <v>7.29117147040489</v>
       </c>
       <c r="C24">
-        <v>1.00049141115116</v>
+        <v>2.141403373148535</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.440043871759201</v>
+        <v>0.3087513939323827</v>
       </c>
       <c r="F24">
-        <v>2.170038921573038</v>
+        <v>5.184287114816556</v>
       </c>
       <c r="G24">
-        <v>1.221994989540491</v>
+        <v>0.0007323196489583683</v>
       </c>
       <c r="H24">
-        <v>2.46130645467548</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.2488406280189537</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.7558366796537328</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>0.6802241789982872</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.47049646138322</v>
+        <v>5.819151734845946</v>
       </c>
       <c r="C25">
-        <v>0.8031977036352487</v>
+        <v>1.702276359684504</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.3486115700880035</v>
+        <v>0.2540816405795354</v>
       </c>
       <c r="F25">
-        <v>1.757113814925404</v>
+        <v>4.247302339519564</v>
       </c>
       <c r="G25">
-        <v>0.9788862204745641</v>
+        <v>0.0007540655443558687</v>
       </c>
       <c r="H25">
-        <v>1.996705277796906</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.2029993927198888</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.5991369384428609</v>
+        <v>0</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0.741211882887562</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_47/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_47/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.792895131551688</v>
+        <v>3.554964540839308</v>
       </c>
       <c r="C2">
-        <v>1.396633933692158</v>
+        <v>0.9548983971128564</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2150769661361593</v>
+        <v>0.9988804556869013</v>
       </c>
       <c r="F2">
-        <v>3.608700645197018</v>
+        <v>1.844363338634579</v>
       </c>
       <c r="G2">
-        <v>0.0007702628024344857</v>
+        <v>0.0007805274256331836</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1725094698485989</v>
+        <v>0.0120935464715739</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.7962517789935148</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.6333007691074215</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4.122902548582033</v>
+        <v>3.091480726403177</v>
       </c>
       <c r="C3">
-        <v>1.197224792946827</v>
+        <v>0.8368410166379761</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1892218120279097</v>
+        <v>0.8776890370810122</v>
       </c>
       <c r="F3">
-        <v>3.199699464507603</v>
+        <v>1.656474772004685</v>
       </c>
       <c r="G3">
-        <v>0.0007814530157713002</v>
+        <v>0.0007853694005500205</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1533471862723204</v>
+        <v>0.0120435186802208</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8386914495236653</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.6298279405386182</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.721271542705267</v>
+        <v>2.807517606164083</v>
       </c>
       <c r="C4">
-        <v>1.077702501171757</v>
+        <v>0.76444412259562</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1735768888817049</v>
+        <v>0.8041243022036326</v>
       </c>
       <c r="F4">
-        <v>2.958058590551957</v>
+        <v>1.545215388446962</v>
       </c>
       <c r="G4">
-        <v>0.0007884556449515578</v>
+        <v>0.0007884233920298759</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1421770273048679</v>
+        <v>0.01212207858881698</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8669629517338819</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.6331111172258801</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.559685493975223</v>
+        <v>2.691902507398254</v>
       </c>
       <c r="C5">
-        <v>1.029613074994586</v>
+        <v>0.7349529035703313</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1672521718683413</v>
+        <v>0.7743326532598758</v>
       </c>
       <c r="F5">
-        <v>2.861680557970431</v>
+        <v>1.50081728489674</v>
       </c>
       <c r="G5">
-        <v>0.0007913458927801174</v>
+        <v>0.0007896889354140901</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1377560132047293</v>
+        <v>0.01217960215831404</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.878998289190271</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.6357174405506214</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.532969967312283</v>
+        <v>2.672709402413318</v>
       </c>
       <c r="C6">
-        <v>1.021661967521311</v>
+        <v>0.7300562551273231</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1662048247799106</v>
+        <v>0.7693963048883745</v>
       </c>
       <c r="F6">
-        <v>2.845795476116905</v>
+        <v>1.493499298263387</v>
       </c>
       <c r="G6">
-        <v>0.0007918281227069501</v>
+        <v>0.0007899003655576864</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1370293034479673</v>
+        <v>0.01219063951897503</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8810266793482029</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.6362242057371503</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.719084365752224</v>
+        <v>2.805958034143941</v>
       </c>
       <c r="C7">
-        <v>1.077051596819956</v>
+        <v>0.7640463635567301</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1734913951347679</v>
+        <v>0.8037217997217425</v>
       </c>
       <c r="F7">
-        <v>2.956750694192209</v>
+        <v>1.544612926071736</v>
       </c>
       <c r="G7">
-        <v>0.0007884944713034399</v>
+        <v>0.0007884403736791346</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1421168972431488</v>
+        <v>0.01212275359125492</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8671232336051133</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.6331412505072365</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4.559622892419611</v>
+        <v>3.394993675522699</v>
       </c>
       <c r="C8">
-        <v>1.327198118366709</v>
+        <v>0.9141659635187125</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2061097464129276</v>
+        <v>0.9569011961289675</v>
       </c>
       <c r="F8">
-        <v>3.465520891644672</v>
+        <v>1.778670429350868</v>
       </c>
       <c r="G8">
-        <v>0.0007740960517417314</v>
+        <v>0.0007821805309776867</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.165766657299578</v>
+        <v>0.01205238988288926</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.810398691434095</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.6309213153249971</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6.304489503691968</v>
+        <v>4.557662606311624</v>
       </c>
       <c r="C9">
-        <v>1.846950283484603</v>
+        <v>1.209865522755081</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2722734382263639</v>
+        <v>1.265326501207213</v>
       </c>
       <c r="F9">
-        <v>4.553722737574958</v>
+        <v>2.274706490098183</v>
       </c>
       <c r="G9">
-        <v>0.000746726149431387</v>
+        <v>0.0007705160240715109</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.217853404893674</v>
+        <v>0.01287742311031437</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.7189145695276338</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>0.674062382801921</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7.677048073090077</v>
+        <v>5.420635640375281</v>
       </c>
       <c r="C10">
-        <v>2.256698586625873</v>
+        <v>1.428849372079128</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.3228326466680542</v>
+        <v>1.498869567530079</v>
       </c>
       <c r="F10">
-        <v>5.433438626451135</v>
+        <v>2.668575652738895</v>
       </c>
       <c r="G10">
-        <v>0.0007268488811152699</v>
+        <v>0.0007622706490166903</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2612327269300607</v>
+        <v>0.01421628621775639</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6673609320118175</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>0.7415339497707123</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.329996730327537</v>
+        <v>5.816158734758005</v>
       </c>
       <c r="C11">
-        <v>2.451990771463159</v>
+        <v>1.529080711578501</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.3464227495278962</v>
+        <v>1.607136326785991</v>
       </c>
       <c r="F11">
-        <v>5.858032013796333</v>
+        <v>2.855855451968068</v>
       </c>
       <c r="G11">
-        <v>0.0007177741639154081</v>
+        <v>0.0007585783414298304</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2825359247917874</v>
+        <v>0.01502068441651971</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6483269378479406</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>0.7816778403683173</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.582280368082763</v>
+        <v>5.966451755927608</v>
       </c>
       <c r="C12">
-        <v>2.527518114827217</v>
+        <v>1.567145415567722</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.3554574834965649</v>
+        <v>1.648473699434859</v>
       </c>
       <c r="F12">
-        <v>6.023047142607709</v>
+        <v>2.928098675335832</v>
       </c>
       <c r="G12">
-        <v>0.0007143246162268913</v>
+        <v>0.0007571875099156022</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.290876737013761</v>
+        <v>0.01535677101333377</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6418617116868717</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>0.7983944992708985</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.527706377557593</v>
+        <v>5.934058897917851</v>
       </c>
       <c r="C13">
-        <v>2.51117655776028</v>
+        <v>1.558942284272291</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.3535068693262247</v>
+        <v>1.639555057947689</v>
       </c>
       <c r="F13">
-        <v>5.987306958614795</v>
+        <v>2.912478189773196</v>
       </c>
       <c r="G13">
-        <v>0.0007150682765335166</v>
+        <v>0.0007574867406159038</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.289067344619184</v>
+        <v>0.01528293094590438</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6432191396613547</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>0.7947242352810804</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.350645594543266</v>
+        <v>5.828512507479616</v>
       </c>
       <c r="C14">
-        <v>2.458170986091545</v>
+        <v>1.53221000018732</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.3471638976982163</v>
+        <v>1.61053008895351</v>
       </c>
       <c r="F14">
-        <v>5.871518465822987</v>
+        <v>2.861771432038921</v>
       </c>
       <c r="G14">
-        <v>0.0007174906858359458</v>
+        <v>0.0007584637756171686</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.283216330877849</v>
+        <v>0.01504768290606862</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.647779464163861</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>0.7830218174653112</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.242875740745205</v>
+        <v>5.763932528735552</v>
       </c>
       <c r="C15">
-        <v>2.425918386782257</v>
+        <v>1.51585059225124</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.3432924356298983</v>
+        <v>1.592797124568023</v>
       </c>
       <c r="F15">
-        <v>5.801169513406222</v>
+        <v>2.830889558422825</v>
       </c>
       <c r="G15">
-        <v>0.0007189724881541218</v>
+        <v>0.0007590631639565534</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2796696629396678</v>
+        <v>0.01490779274481824</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6506730557947122</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>0.7760559450424012</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.635025576715179</v>
+        <v>5.394854380238883</v>
       </c>
       <c r="C16">
-        <v>2.244138681721154</v>
+        <v>1.422313121944967</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.3213042248349396</v>
+        <v>1.491838817331356</v>
       </c>
       <c r="F16">
-        <v>5.406240053404218</v>
+        <v>2.656512790981026</v>
       </c>
       <c r="G16">
-        <v>0.0007274405943769047</v>
+        <v>0.0007625130402929003</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2598759857860244</v>
+        <v>0.01416792940801059</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6687024287101337</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>0.7391136193736116</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7.270043907589525</v>
+        <v>5.169255991760338</v>
       </c>
       <c r="C17">
-        <v>2.135093106089357</v>
+        <v>1.365102508184805</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.30797741353161</v>
+        <v>1.430455540531923</v>
       </c>
       <c r="F17">
-        <v>5.170685179429569</v>
+        <v>2.551722349138316</v>
       </c>
       <c r="G17">
-        <v>0.0007326216609276037</v>
+        <v>0.0007646437050966351</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2481664687642819</v>
+        <v>0.01376638171488409</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6809641581451586</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.7189775842572601</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7.062740354213361</v>
+        <v>5.039769593036624</v>
       </c>
       <c r="C18">
-        <v>2.073189507735606</v>
+        <v>1.332252940405965</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.3003665989066491</v>
+        <v>1.395337128858358</v>
       </c>
       <c r="F18">
-        <v>5.037446984128081</v>
+        <v>2.492202263610494</v>
       </c>
       <c r="G18">
-        <v>0.000735599213168257</v>
+        <v>0.000765874787408939</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2415758341209937</v>
+        <v>0.01355358617367841</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6884250833198564</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>0.7082752230674032</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6.992976526917346</v>
+        <v>4.995971740545826</v>
       </c>
       <c r="C19">
-        <v>2.052362198486605</v>
+        <v>1.321139736486202</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.2977985905572851</v>
+        <v>1.383477496875884</v>
       </c>
       <c r="F19">
-        <v>4.992700944477292</v>
+        <v>2.472174479934665</v>
       </c>
       <c r="G19">
-        <v>0.000736607171004211</v>
+        <v>0.0007662925997041977</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2393678446452867</v>
+        <v>0.01348455933807102</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6910184253103324</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.7047981067606628</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7.30861914774664</v>
+        <v>5.193242551581079</v>
       </c>
       <c r="C20">
-        <v>2.146614735079822</v>
+        <v>1.371186687227009</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.3093903316981326</v>
+        <v>1.436970148392717</v>
       </c>
       <c r="F20">
-        <v>5.195523087854525</v>
+        <v>2.562798482470043</v>
       </c>
       <c r="G20">
-        <v>0.000732070438355233</v>
+        <v>0.0007644163219707465</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2493977079548699</v>
+        <v>0.01380722380642041</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6796159098658592</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>0.7210290076727546</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.402507976108382</v>
+        <v>5.859499225983711</v>
       </c>
       <c r="C21">
-        <v>2.473694617608658</v>
+        <v>1.540058776956187</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.3490240737246424</v>
+        <v>1.61904581610699</v>
       </c>
       <c r="F21">
-        <v>5.905407058266661</v>
+        <v>2.876627941695887</v>
       </c>
       <c r="G21">
-        <v>0.0007167795985473251</v>
+        <v>0.0007581766058610082</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2849270528525949</v>
+        <v>0.01511589786175094</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6464188680973137</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>0.7864166631633793</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.147295625541005</v>
+        <v>6.297999822755287</v>
       </c>
       <c r="C22">
-        <v>2.696822166745903</v>
+        <v>1.651074681579644</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.3755298254918955</v>
+        <v>1.740045494361084</v>
       </c>
       <c r="F22">
-        <v>6.394465119252573</v>
+        <v>3.089539796757805</v>
       </c>
       <c r="G22">
-        <v>0.0007067042340792367</v>
+        <v>0.0007541409561389755</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.3097733093901383</v>
+        <v>0.01615651109545624</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.6291178952097738</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>0.8380659896358225</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.746700433379601</v>
+        <v>6.063650465976764</v>
       </c>
       <c r="C23">
-        <v>2.576763642454353</v>
+        <v>1.591756601257885</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.3613216591330612</v>
+        <v>1.675265243736106</v>
       </c>
       <c r="F23">
-        <v>6.130870021677566</v>
+        <v>2.975133462209413</v>
       </c>
       <c r="G23">
-        <v>0.0007120924174066381</v>
+        <v>0.0007562913574065621</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2963449890379906</v>
+        <v>0.01558294440193819</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.6379079958892788</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>0.8096283888776554</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7.29117147040489</v>
+        <v>5.182397570938861</v>
       </c>
       <c r="C24">
-        <v>2.141403373148535</v>
+        <v>1.368435901934674</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.3087513939323827</v>
+        <v>1.434024363054107</v>
       </c>
       <c r="F24">
-        <v>5.184287114816556</v>
+        <v>2.557788715115521</v>
       </c>
       <c r="G24">
-        <v>0.0007323196489583683</v>
+        <v>0.0007645191027699285</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2488406280189537</v>
+        <v>0.01378870309697788</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.6802241789982872</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>0.7200988480838078</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5.819151734845946</v>
+        <v>4.24191434150913</v>
       </c>
       <c r="C25">
-        <v>1.702276359684504</v>
+        <v>1.129639363808167</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.2540816405795354</v>
+        <v>1.180829938515302</v>
       </c>
       <c r="F25">
-        <v>4.247302339519564</v>
+        <v>2.135881011096942</v>
       </c>
       <c r="G25">
-        <v>0.0007540655443558687</v>
+        <v>0.0007736108851755115</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2029993927198888</v>
+        <v>0.01253690398922913</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.741211882887562</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.6566380775554421</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_47/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_47/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.554964540839308</v>
+        <v>1.237070695960085</v>
       </c>
       <c r="C2">
-        <v>0.9548983971128564</v>
+        <v>0.3105736028194883</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.9988804556869013</v>
+        <v>0.7658344084233022</v>
       </c>
       <c r="F2">
-        <v>1.844363338634579</v>
+        <v>2.080998279908741</v>
       </c>
       <c r="G2">
-        <v>0.0007805274256331836</v>
+        <v>0.00239708178956788</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0120935464715739</v>
+        <v>0.02995519906780153</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.6333007691074215</v>
+        <v>1.537663736486479</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.091480726403177</v>
+        <v>1.090371711796365</v>
       </c>
       <c r="C3">
-        <v>0.8368410166379761</v>
+        <v>0.2718714026372027</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.8776890370810122</v>
+        <v>0.7354788959205223</v>
       </c>
       <c r="F3">
-        <v>1.656474772004685</v>
+        <v>2.054911353883298</v>
       </c>
       <c r="G3">
-        <v>0.0007853694005500205</v>
+        <v>0.002400078095524242</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0120435186802208</v>
+        <v>0.03062390510857327</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.6298279405386182</v>
+        <v>1.571178246654483</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.807517606164083</v>
+        <v>1.00006562515108</v>
       </c>
       <c r="C4">
-        <v>0.76444412259562</v>
+        <v>0.248008428769765</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.8041243022036326</v>
+        <v>0.7171059318950626</v>
       </c>
       <c r="F4">
-        <v>1.545215388446962</v>
+        <v>2.040415005971994</v>
       </c>
       <c r="G4">
-        <v>0.0007884233920298759</v>
+        <v>0.002402012034680739</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.01212207858881698</v>
+        <v>0.03107427839695731</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.6331111172258801</v>
+        <v>1.593784093427303</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.691902507398254</v>
+        <v>0.9632086851536883</v>
       </c>
       <c r="C5">
-        <v>0.7349529035703313</v>
+        <v>0.238259623645348</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.7743326532598758</v>
+        <v>0.7096856415208634</v>
       </c>
       <c r="F5">
-        <v>1.50081728489674</v>
+        <v>2.034888857923065</v>
       </c>
       <c r="G5">
-        <v>0.0007896889354140901</v>
+        <v>0.002402823890812928</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.01217960215831404</v>
+        <v>0.03126776277949794</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.6357174405506214</v>
+        <v>1.603503668571875</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.672709402413318</v>
+        <v>0.9570852651589803</v>
       </c>
       <c r="C6">
-        <v>0.7300562551273231</v>
+        <v>0.2366393835161489</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.7693963048883745</v>
+        <v>0.7084575479520652</v>
       </c>
       <c r="F6">
-        <v>1.493499298263387</v>
+        <v>2.033994233728876</v>
       </c>
       <c r="G6">
-        <v>0.0007899003655576864</v>
+        <v>0.002402960136266938</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.01219063951897503</v>
+        <v>0.03130049040405147</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.6362242057371503</v>
+        <v>1.605148178621008</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.805958034143941</v>
+        <v>0.9995687856412019</v>
       </c>
       <c r="C7">
-        <v>0.7640463635567301</v>
+        <v>0.2478770511481514</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.8037217997217425</v>
+        <v>0.7170055884958231</v>
       </c>
       <c r="F7">
-        <v>1.544612926071736</v>
+        <v>2.040338936501584</v>
       </c>
       <c r="G7">
-        <v>0.0007884403736791346</v>
+        <v>0.002402022887558193</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.01212275359125492</v>
+        <v>0.03107684756012752</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.6331412505072365</v>
+        <v>1.593913123323361</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.394993675522699</v>
+        <v>1.186538213996869</v>
       </c>
       <c r="C8">
-        <v>0.9141659635187125</v>
+        <v>0.2972501227826285</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.9569011961289675</v>
+        <v>0.7553127787438285</v>
       </c>
       <c r="F8">
-        <v>1.778670429350868</v>
+        <v>2.071687017642788</v>
       </c>
       <c r="G8">
-        <v>0.0007821805309776867</v>
+        <v>0.002398095409832397</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.01205238988288926</v>
+        <v>0.03017748108841545</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.6309213153249971</v>
+        <v>1.548797230153014</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.557662606311624</v>
+        <v>1.551275112127598</v>
       </c>
       <c r="C9">
-        <v>1.209865522755081</v>
+        <v>0.3932578202549735</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.265326501207213</v>
+        <v>0.8325398722141557</v>
       </c>
       <c r="F9">
-        <v>2.274706490098183</v>
+        <v>2.145293681163267</v>
       </c>
       <c r="G9">
-        <v>0.0007705160240715109</v>
+        <v>0.002391137663308026</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.01287742311031437</v>
+        <v>0.02873176708551028</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.674062382801921</v>
+        <v>1.476521855829887</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.420635640375281</v>
+        <v>1.818022220607588</v>
       </c>
       <c r="C10">
-        <v>1.428849372079128</v>
+        <v>0.4632770363875807</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1.498869567530079</v>
+        <v>0.8905708947053341</v>
       </c>
       <c r="F10">
-        <v>2.668575652738895</v>
+        <v>2.20686667647189</v>
       </c>
       <c r="G10">
-        <v>0.0007622706490166903</v>
+        <v>0.002386474625608636</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.01421628621775639</v>
+        <v>0.02786652987599325</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.7415339497707123</v>
+        <v>1.433441685565811</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.816158734758005</v>
+        <v>1.939095710745164</v>
       </c>
       <c r="C11">
-        <v>1.529080711578501</v>
+        <v>0.4950140990478076</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1.607136326785991</v>
+        <v>0.9172535509981543</v>
       </c>
       <c r="F11">
-        <v>2.855855451968068</v>
+        <v>2.236526809804872</v>
       </c>
       <c r="G11">
-        <v>0.0007585783414298304</v>
+        <v>0.002384449729469188</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.01502068441651971</v>
+        <v>0.02751634026443028</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.7816778403683173</v>
+        <v>1.416050724877138</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.966451755927608</v>
+        <v>1.984902663924061</v>
       </c>
       <c r="C12">
-        <v>1.567145415567722</v>
+        <v>0.5070150762532535</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1.648473699434859</v>
+        <v>0.927398470928253</v>
       </c>
       <c r="F12">
-        <v>2.928098675335832</v>
+        <v>2.247997225705575</v>
       </c>
       <c r="G12">
-        <v>0.0007571875099156022</v>
+        <v>0.00238369673117298</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.01535677101333377</v>
+        <v>0.02739003049035915</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.7983944992708985</v>
+        <v>1.409785104465612</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.934058897917851</v>
+        <v>1.975039169127683</v>
       </c>
       <c r="C13">
-        <v>1.558942284272291</v>
+        <v>0.5044312239982105</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1.639555057947689</v>
+        <v>0.9252117683645054</v>
       </c>
       <c r="F13">
-        <v>2.912478189773196</v>
+        <v>2.245516223805964</v>
       </c>
       <c r="G13">
-        <v>0.0007574867406159038</v>
+        <v>0.002383858290735774</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.01528293094590438</v>
+        <v>0.02741695248293041</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.7947242352810804</v>
+        <v>1.411120245008732</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.828512507479616</v>
+        <v>1.942865108176022</v>
       </c>
       <c r="C14">
-        <v>1.53221000018732</v>
+        <v>0.4960017740731928</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1.61053008895351</v>
+        <v>0.9180873628056219</v>
       </c>
       <c r="F14">
-        <v>2.861771432038921</v>
+        <v>2.237465694172982</v>
       </c>
       <c r="G14">
-        <v>0.0007584637756171686</v>
+        <v>0.002384387503921934</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.01504768290606862</v>
+        <v>0.02750582210653008</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.7830218174653112</v>
+        <v>1.415528820717967</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.763932528735552</v>
+        <v>1.923152176246106</v>
       </c>
       <c r="C15">
-        <v>1.51585059225124</v>
+        <v>0.4908362397363248</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1.592797124568023</v>
+        <v>0.9137287671274095</v>
       </c>
       <c r="F15">
-        <v>2.830889558422825</v>
+        <v>2.232565650369651</v>
       </c>
       <c r="G15">
-        <v>0.0007590631639565534</v>
+        <v>0.002384713455667828</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.01490779274481824</v>
+        <v>0.02756107938237307</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.7760559450424012</v>
+        <v>1.418270948232902</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.394854380238883</v>
+        <v>1.810104159121295</v>
       </c>
       <c r="C16">
-        <v>1.422313121944967</v>
+        <v>0.4612005768909739</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>1.491838817331356</v>
+        <v>0.8888328301470807</v>
       </c>
       <c r="F16">
-        <v>2.656512790981026</v>
+        <v>2.2049616492383</v>
       </c>
       <c r="G16">
-        <v>0.0007625130402929003</v>
+        <v>0.002386608890234933</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.01416792940801059</v>
+        <v>0.02789029399976606</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.7391136193736116</v>
+        <v>1.434622853526918</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.169255991760338</v>
+        <v>1.740682015589812</v>
       </c>
       <c r="C17">
-        <v>1.365102508184805</v>
+        <v>0.4429901521909301</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>1.430455540531923</v>
+        <v>0.8736326804129817</v>
       </c>
       <c r="F17">
-        <v>2.551722349138316</v>
+        <v>2.188451197956624</v>
       </c>
       <c r="G17">
-        <v>0.0007646437050966351</v>
+        <v>0.002387796305318123</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.01376638171488409</v>
+        <v>0.02810341562321383</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.7189775842572601</v>
+        <v>1.445221241017563</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.039769593036624</v>
+        <v>1.700726832038129</v>
       </c>
       <c r="C18">
-        <v>1.332252940405965</v>
+        <v>0.4325052066733406</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>1.395337128858358</v>
+        <v>0.8649166964575414</v>
       </c>
       <c r="F18">
-        <v>2.492202263610494</v>
+        <v>2.17911006621199</v>
       </c>
       <c r="G18">
-        <v>0.000765874787408939</v>
+        <v>0.002388488347105329</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.01355358617367841</v>
+        <v>0.02823008019242401</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.7082752230674032</v>
+        <v>1.451524672147627</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.995971740545826</v>
+        <v>1.687194390929051</v>
       </c>
       <c r="C19">
-        <v>1.321139736486202</v>
+        <v>0.4289533499531899</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>1.383477496875884</v>
+        <v>0.8619702089242338</v>
       </c>
       <c r="F19">
-        <v>2.472174479934665</v>
+        <v>2.175973938348818</v>
       </c>
       <c r="G19">
-        <v>0.0007662925997041977</v>
+        <v>0.002388724220988889</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.01348455933807102</v>
+        <v>0.02827366610435078</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.7047981067606628</v>
+        <v>1.45369446564851</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.193242551581079</v>
+        <v>1.748074764720002</v>
       </c>
       <c r="C20">
-        <v>1.371186687227009</v>
+        <v>0.4449298043209069</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1.436970148392717</v>
+        <v>0.8752479953232495</v>
       </c>
       <c r="F20">
-        <v>2.562798482470043</v>
+        <v>2.190192686044242</v>
       </c>
       <c r="G20">
-        <v>0.0007644163219707465</v>
+        <v>0.002387668964553576</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.01380722380642041</v>
+        <v>0.02808030551211083</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.7210290076727546</v>
+        <v>1.44407152773725</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.859499225983711</v>
+        <v>1.952316536638477</v>
       </c>
       <c r="C21">
-        <v>1.540058776956187</v>
+        <v>0.498478178431526</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1.61904581610699</v>
+        <v>0.9201788672565954</v>
       </c>
       <c r="F21">
-        <v>2.876627941695887</v>
+        <v>2.239823838110453</v>
       </c>
       <c r="G21">
-        <v>0.0007581766058610082</v>
+        <v>0.002384231687594993</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.01511589786175094</v>
+        <v>0.02747954752453907</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.7864166631633793</v>
+        <v>1.414225210223677</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.297999822755287</v>
+        <v>2.085560767529671</v>
       </c>
       <c r="C22">
-        <v>1.651074681579644</v>
+        <v>0.5333748375993537</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1.740045494361084</v>
+        <v>0.9497814422632018</v>
       </c>
       <c r="F22">
-        <v>3.089539796757805</v>
+        <v>2.273653067973299</v>
       </c>
       <c r="G22">
-        <v>0.0007541409561389755</v>
+        <v>0.002382065552651948</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.01615651109545624</v>
+        <v>0.02712366190144522</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0.8380659896358225</v>
+        <v>1.396585125904636</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.063650465976764</v>
+        <v>2.014468374837179</v>
       </c>
       <c r="C23">
-        <v>1.591756601257885</v>
+        <v>0.5147592127319172</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1.675265243736106</v>
+        <v>0.9339602667164826</v>
       </c>
       <c r="F23">
-        <v>2.975133462209413</v>
+        <v>2.255469881048668</v>
       </c>
       <c r="G23">
-        <v>0.0007562913574065621</v>
+        <v>0.002383214332360729</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.01558294440193819</v>
+        <v>0.02731022377661319</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.8096283888776554</v>
+        <v>1.405828327454799</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.182397570938861</v>
+        <v>1.744732638094206</v>
       </c>
       <c r="C24">
-        <v>1.368435901934674</v>
+        <v>0.4440529359251286</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1.434024363054107</v>
+        <v>0.8745176404789703</v>
       </c>
       <c r="F24">
-        <v>2.557788715115521</v>
+        <v>2.189404889189689</v>
       </c>
       <c r="G24">
-        <v>0.0007645191027699285</v>
+        <v>0.002387726506040584</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.01378870309697788</v>
+        <v>0.0280907407080182</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.7200988480838078</v>
+        <v>1.444590658294999</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.24191434150913</v>
+        <v>1.452814992071467</v>
       </c>
       <c r="C25">
-        <v>1.129639363808167</v>
+        <v>0.3673745380013997</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.180829938515302</v>
+        <v>0.8114215560537588</v>
       </c>
       <c r="F25">
-        <v>2.135881011096942</v>
+        <v>2.124072149015461</v>
       </c>
       <c r="G25">
-        <v>0.0007736108851755115</v>
+        <v>0.002392940758420754</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.01253690398922913</v>
+        <v>0.02908851292576387</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.6566380775554421</v>
+        <v>1.494325138371281</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_47/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_47/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.237070695960085</v>
+        <v>3.554964540839137</v>
       </c>
       <c r="C2">
-        <v>0.3105736028194883</v>
+        <v>0.9548983971128564</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.7658344084233022</v>
+        <v>0.9988804556869013</v>
       </c>
       <c r="F2">
-        <v>2.080998279908741</v>
+        <v>1.844363338634565</v>
       </c>
       <c r="G2">
-        <v>0.00239708178956788</v>
+        <v>0.0007805274256337082</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02995519906780153</v>
+        <v>0.01209354647152594</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.537663736486479</v>
+        <v>0.6333007691074215</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.090371711796365</v>
+        <v>3.091480726403233</v>
       </c>
       <c r="C3">
-        <v>0.2718714026372027</v>
+        <v>0.8368410166382034</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.7354788959205223</v>
+        <v>0.8776890370809554</v>
       </c>
       <c r="F3">
-        <v>2.054911353883298</v>
+        <v>1.656474772004685</v>
       </c>
       <c r="G3">
-        <v>0.002400078095524242</v>
+        <v>0.0007853694004931744</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03062390510857327</v>
+        <v>0.01204351868014086</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.571178246654483</v>
+        <v>0.6298279405385756</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.00006562515108</v>
+        <v>2.807517606164026</v>
       </c>
       <c r="C4">
-        <v>0.248008428769765</v>
+        <v>0.7644441225958474</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.7171059318950626</v>
+        <v>0.8041243022036468</v>
       </c>
       <c r="F4">
-        <v>2.040415005971994</v>
+        <v>1.545215388446962</v>
       </c>
       <c r="G4">
-        <v>0.002402012034680739</v>
+        <v>0.0007884233920735377</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03107427839695731</v>
+        <v>0.01212207858882053</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.593784093427303</v>
+        <v>0.6331111172259085</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9632086851536883</v>
+        <v>2.691902507398368</v>
       </c>
       <c r="C5">
-        <v>0.238259623645348</v>
+        <v>0.7349529035700755</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.7096856415208634</v>
+        <v>0.7743326532598758</v>
       </c>
       <c r="F5">
-        <v>2.034888857923065</v>
+        <v>1.500817284896712</v>
       </c>
       <c r="G5">
-        <v>0.002402823890812928</v>
+        <v>0.000789688935471816</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.03126776277949794</v>
+        <v>0.01217960215836378</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.603503668571875</v>
+        <v>0.6357174405506072</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9570852651589803</v>
+        <v>2.672709402413147</v>
       </c>
       <c r="C6">
-        <v>0.2366393835161489</v>
+        <v>0.7300562551273515</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.7084575479520652</v>
+        <v>0.7693963048883745</v>
       </c>
       <c r="F6">
-        <v>2.033994233728876</v>
+        <v>1.493499298263387</v>
       </c>
       <c r="G6">
-        <v>0.002402960136266938</v>
+        <v>0.0007899003655706395</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.03130049040405147</v>
+        <v>0.01219063951901589</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.605148178621008</v>
+        <v>0.6362242057370935</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9995687856412019</v>
+        <v>2.805958034144055</v>
       </c>
       <c r="C7">
-        <v>0.2478770511481514</v>
+        <v>0.7640463635569006</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.7170055884958231</v>
+        <v>0.8037217997217141</v>
       </c>
       <c r="F7">
-        <v>2.040338936501584</v>
+        <v>1.54461292607175</v>
       </c>
       <c r="G7">
-        <v>0.002402022887558193</v>
+        <v>0.0007884403736782941</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.03107684756012752</v>
+        <v>0.01212275359123893</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.593913123323361</v>
+        <v>0.6331412505072365</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.186538213996869</v>
+        <v>3.394993675522528</v>
       </c>
       <c r="C8">
-        <v>0.2972501227826285</v>
+        <v>0.9141659635184851</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.7553127787438285</v>
+        <v>0.9569011961289675</v>
       </c>
       <c r="F8">
-        <v>2.071687017642788</v>
+        <v>1.778670429350868</v>
       </c>
       <c r="G8">
-        <v>0.002398095409832397</v>
+        <v>0.0007821805309912001</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.03017748108841545</v>
+        <v>0.01205238988288215</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.548797230153014</v>
+        <v>0.6309213153249829</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.551275112127598</v>
+        <v>4.55766260631151</v>
       </c>
       <c r="C9">
-        <v>0.3932578202549735</v>
+        <v>1.209865522755422</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.8325398722141557</v>
+        <v>1.265326501207227</v>
       </c>
       <c r="F9">
-        <v>2.145293681163267</v>
+        <v>2.274706490098197</v>
       </c>
       <c r="G9">
-        <v>0.002391137663308026</v>
+        <v>0.0007705160240865903</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.02873176708551028</v>
+        <v>0.01287742311030904</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.476521855829887</v>
+        <v>0.674062382801921</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.818022220607588</v>
+        <v>5.420635640375394</v>
       </c>
       <c r="C10">
-        <v>0.4632770363875807</v>
+        <v>1.428849372079299</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.8905708947053341</v>
+        <v>1.498869567530022</v>
       </c>
       <c r="F10">
-        <v>2.20686667647189</v>
+        <v>2.668575652738866</v>
       </c>
       <c r="G10">
-        <v>0.002386474625608636</v>
+        <v>0.0007622706489767705</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.02786652987599325</v>
+        <v>0.01421628621769955</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.433441685565811</v>
+        <v>0.7415339497707407</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.939095710745164</v>
+        <v>5.816158734758176</v>
       </c>
       <c r="C11">
-        <v>0.4950140990478076</v>
+        <v>1.529080711578445</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.9172535509981543</v>
+        <v>1.607136326786048</v>
       </c>
       <c r="F11">
-        <v>2.236526809804872</v>
+        <v>2.855855451968011</v>
       </c>
       <c r="G11">
-        <v>0.002384449729469188</v>
+        <v>0.0007585783414300769</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.02751634026443028</v>
+        <v>0.01502068441653392</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.416050724877138</v>
+        <v>0.7816778403683173</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.984902663924061</v>
+        <v>5.966451755927949</v>
       </c>
       <c r="C12">
-        <v>0.5070150762532535</v>
+        <v>1.567145415567666</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.927398470928253</v>
+        <v>1.648473699434888</v>
       </c>
       <c r="F12">
-        <v>2.247997225705575</v>
+        <v>2.928098675335832</v>
       </c>
       <c r="G12">
-        <v>0.00238369673117298</v>
+        <v>0.0007571875099148251</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.02739003049035915</v>
+        <v>0.01535677101339772</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.409785104465612</v>
+        <v>0.7983944992708416</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.975039169127683</v>
+        <v>5.934058897918021</v>
       </c>
       <c r="C13">
-        <v>0.5044312239982105</v>
+        <v>1.558942284271723</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.9252117683645054</v>
+        <v>1.639555057947646</v>
       </c>
       <c r="F13">
-        <v>2.245516223805964</v>
+        <v>2.912478189773253</v>
       </c>
       <c r="G13">
-        <v>0.002383858290735774</v>
+        <v>0.0007574867406906769</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.02741695248293041</v>
+        <v>0.01528293094580135</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.411120245008732</v>
+        <v>0.7947242352810235</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.942865108176022</v>
+        <v>5.828512507479502</v>
       </c>
       <c r="C14">
-        <v>0.4960017740731928</v>
+        <v>1.532210000187092</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.9180873628056219</v>
+        <v>1.610530088953553</v>
       </c>
       <c r="F14">
-        <v>2.237465694172982</v>
+        <v>2.861771432038921</v>
       </c>
       <c r="G14">
-        <v>0.002384387503921934</v>
+        <v>0.0007584637756172241</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.02750582210653008</v>
+        <v>0.01504768290603309</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.415528820717967</v>
+        <v>0.783021817465297</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.923152176246106</v>
+        <v>5.763932528735211</v>
       </c>
       <c r="C15">
-        <v>0.4908362397363248</v>
+        <v>1.515850592251013</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.9137287671274095</v>
+        <v>1.592797124568037</v>
       </c>
       <c r="F15">
-        <v>2.232565650369651</v>
+        <v>2.830889558422825</v>
       </c>
       <c r="G15">
-        <v>0.002384713455667828</v>
+        <v>0.0007590631639400987</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.02756107938237307</v>
+        <v>0.01490779274477205</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.418270948232902</v>
+        <v>0.7760559450424012</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.810104159121295</v>
+        <v>5.39485438023911</v>
       </c>
       <c r="C16">
-        <v>0.4612005768909739</v>
+        <v>1.422313121945024</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.8888328301470807</v>
+        <v>1.49183881733137</v>
       </c>
       <c r="F16">
-        <v>2.2049616492383</v>
+        <v>2.656512790981054</v>
       </c>
       <c r="G16">
-        <v>0.002386608890234933</v>
+        <v>0.0007625130403837235</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.02789029399976606</v>
+        <v>0.01416792940796086</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.434622853526918</v>
+        <v>0.7391136193735548</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.740682015589812</v>
+        <v>5.169255991760281</v>
       </c>
       <c r="C17">
-        <v>0.4429901521909301</v>
+        <v>1.365102508184805</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.8736326804129817</v>
+        <v>1.430455540531867</v>
       </c>
       <c r="F17">
-        <v>2.188451197956624</v>
+        <v>2.551722349138316</v>
       </c>
       <c r="G17">
-        <v>0.002387796305318123</v>
+        <v>0.0007646437051720631</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.02810341562321383</v>
+        <v>0.01376638171488409</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.445221241017563</v>
+        <v>0.7189775842571891</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.700726832038129</v>
+        <v>5.039769593036851</v>
       </c>
       <c r="C18">
-        <v>0.4325052066733406</v>
+        <v>1.332252940406136</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.8649166964575414</v>
+        <v>1.395337128858344</v>
       </c>
       <c r="F18">
-        <v>2.17911006621199</v>
+        <v>2.492202263610466</v>
       </c>
       <c r="G18">
-        <v>0.002388488347105329</v>
+        <v>0.000765874787465962</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.02823008019242401</v>
+        <v>0.01355358617369085</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.451524672147627</v>
+        <v>0.7082752230673606</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.687194390929051</v>
+        <v>4.995971740545826</v>
       </c>
       <c r="C19">
-        <v>0.4289533499531899</v>
+        <v>1.321139736485634</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.8619702089242338</v>
+        <v>1.383477496875926</v>
       </c>
       <c r="F19">
-        <v>2.175973938348818</v>
+        <v>2.472174479934665</v>
       </c>
       <c r="G19">
-        <v>0.002388724220988889</v>
+        <v>0.000766292599759352</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.02827366610435078</v>
+        <v>0.01348455933805681</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.45369446564851</v>
+        <v>0.7047981067607054</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.748074764720002</v>
+        <v>5.193242551580852</v>
       </c>
       <c r="C20">
-        <v>0.4449298043209069</v>
+        <v>1.371186687227066</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.8752479953232495</v>
+        <v>1.436970148392675</v>
       </c>
       <c r="F20">
-        <v>2.190192686044242</v>
+        <v>2.562798482470043</v>
       </c>
       <c r="G20">
-        <v>0.002387668964553576</v>
+        <v>0.0007644163220836121</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.02808030551211083</v>
+        <v>0.01380722380642396</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.44407152773725</v>
+        <v>0.721029007672783</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.952316536638477</v>
+        <v>5.859499225983825</v>
       </c>
       <c r="C21">
-        <v>0.498478178431526</v>
+        <v>1.540058776955959</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.9201788672565954</v>
+        <v>1.619045816106905</v>
       </c>
       <c r="F21">
-        <v>2.239823838110453</v>
+        <v>2.876627941695915</v>
       </c>
       <c r="G21">
-        <v>0.002384231687594993</v>
+        <v>0.0007581766057843872</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.02747954752453907</v>
+        <v>0.01511589786175094</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.414225210223677</v>
+        <v>0.7864166631633651</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.085560767529671</v>
+        <v>6.297999822755116</v>
       </c>
       <c r="C22">
-        <v>0.5333748375993537</v>
+        <v>1.651074681579701</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.9497814422632018</v>
+        <v>1.740045494361084</v>
       </c>
       <c r="F22">
-        <v>2.273653067973299</v>
+        <v>3.089539796757833</v>
       </c>
       <c r="G22">
-        <v>0.002382065552651948</v>
+        <v>0.0007541409560990075</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.02712366190144522</v>
+        <v>0.01615651109538518</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.396585125904636</v>
+        <v>0.8380659896358225</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.014468374837179</v>
+        <v>6.063650465976878</v>
       </c>
       <c r="C23">
-        <v>0.5147592127319172</v>
+        <v>1.591756601257998</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.9339602667164826</v>
+        <v>1.675265243736106</v>
       </c>
       <c r="F23">
-        <v>2.255469881048668</v>
+        <v>2.975133462209413</v>
       </c>
       <c r="G23">
-        <v>0.002383214332360729</v>
+        <v>0.0007562913573333789</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.02731022377661319</v>
+        <v>0.0155829444019524</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.405828327454799</v>
+        <v>0.8096283888775986</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.744732638094206</v>
+        <v>5.182397570938633</v>
       </c>
       <c r="C24">
-        <v>0.4440529359251286</v>
+        <v>1.368435901934788</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.8745176404789703</v>
+        <v>1.434024363054135</v>
       </c>
       <c r="F24">
-        <v>2.189404889189689</v>
+        <v>2.557788715115493</v>
       </c>
       <c r="G24">
-        <v>0.002387726506040584</v>
+        <v>0.0007645191026971362</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.0280907407080182</v>
+        <v>0.01378870309708446</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.444590658294999</v>
+        <v>0.7200988480838646</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.452814992071467</v>
+        <v>4.241914341509016</v>
       </c>
       <c r="C25">
-        <v>0.3673745380013997</v>
+        <v>1.129639363807769</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.8114215560537588</v>
+        <v>1.180829938515316</v>
       </c>
       <c r="F25">
-        <v>2.124072149015461</v>
+        <v>2.135881011096899</v>
       </c>
       <c r="G25">
-        <v>0.002392940758420754</v>
+        <v>0.0007736108852331169</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.02908851292576387</v>
+        <v>0.01253690398929308</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.494325138371281</v>
+        <v>0.6566380775554279</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_47/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_47/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,43 +415,49 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.554964540839137</v>
+        <v>2.6199705100953</v>
       </c>
       <c r="C2">
-        <v>0.9548983971128564</v>
+        <v>0.8703469437137414</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.9988804556869013</v>
+        <v>0.7714789775436941</v>
       </c>
       <c r="F2">
-        <v>1.844363338634565</v>
+        <v>2.497949227199783</v>
       </c>
       <c r="G2">
-        <v>0.0007805274256337082</v>
+        <v>0.6702988918975308</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.001796896339972376</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.005747878777909943</v>
       </c>
       <c r="J2">
-        <v>0.01209354647152594</v>
+        <v>0.4392525526213262</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.3013704742019172</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.07062113666452063</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,45 +466,51 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.6333007691074215</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0.7110856620918042</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.091480726403233</v>
+        <v>2.278643414619239</v>
       </c>
       <c r="C3">
-        <v>0.8368410166382034</v>
+        <v>0.758209749942921</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.8776890370809554</v>
+        <v>0.6814059842730273</v>
       </c>
       <c r="F3">
-        <v>1.656474772004685</v>
+        <v>2.243862317692177</v>
       </c>
       <c r="G3">
-        <v>0.0007853694004931744</v>
+        <v>0.6074470471898366</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.0005278395181655959</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.003641772194606041</v>
       </c>
       <c r="J3">
-        <v>0.01204351868014086</v>
+        <v>0.4150865401275894</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.2932542019585682</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.06332972065700559</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,45 +519,51 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.6298279405385756</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0.7230872070329113</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.807517606164026</v>
+        <v>2.068538938498023</v>
       </c>
       <c r="C4">
-        <v>0.7644441225958474</v>
+        <v>0.6898183330203267</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.8041243022036468</v>
+        <v>0.6262810993891677</v>
       </c>
       <c r="F4">
-        <v>1.545215388446962</v>
+        <v>2.088847272381528</v>
       </c>
       <c r="G4">
-        <v>0.0007884233920735377</v>
+        <v>0.5695067606979052</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.0001133175643337481</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.002600143028579804</v>
       </c>
       <c r="J4">
-        <v>0.01212207858882053</v>
+        <v>0.4006599678314728</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.2885846697097882</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.05884709742067074</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,45 +572,51 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.6331111172259085</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0.7312261175842281</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.691902507398368</v>
+        <v>1.981212253623255</v>
       </c>
       <c r="C5">
-        <v>0.7349529035700755</v>
+        <v>0.6626835116484528</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.7743326532598758</v>
+        <v>0.604256242122581</v>
       </c>
       <c r="F5">
-        <v>1.500817284896712</v>
+        <v>2.025119691041652</v>
       </c>
       <c r="G5">
-        <v>0.000789688935471816</v>
+        <v>0.5532775771703768</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3.028624442302785E-05</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.002289685349090131</v>
       </c>
       <c r="J5">
-        <v>0.01217960215836378</v>
+        <v>0.3944101372940736</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.2862516462621372</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.0569554511160284</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,45 +625,51 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.6357174405506072</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0.7351195077709605</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.672709402413147</v>
+        <v>1.964796039061156</v>
       </c>
       <c r="C6">
-        <v>0.7300562551273515</v>
+        <v>0.658962568983128</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.7693963048883745</v>
+        <v>0.6010949902198419</v>
       </c>
       <c r="F6">
-        <v>1.493499298263387</v>
+        <v>2.013605809566215</v>
       </c>
       <c r="G6">
-        <v>0.0007899003655706395</v>
+        <v>0.5494744836911565</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2.141755502682585E-05</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.002316984649393561</v>
       </c>
       <c r="J6">
-        <v>0.01219063951901589</v>
+        <v>0.3928082996481805</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.2852544247752071</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.05656568196497602</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,45 +678,51 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.6362242057370935</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0.7362574461232825</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.805958034144055</v>
+        <v>2.062135178859023</v>
       </c>
       <c r="C7">
-        <v>0.7640463635569006</v>
+        <v>0.6915858635141205</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.8037217997217141</v>
+        <v>0.6273358071790511</v>
       </c>
       <c r="F7">
-        <v>1.54461292607175</v>
+        <v>2.085405173379357</v>
       </c>
       <c r="G7">
-        <v>0.0007884403736782941</v>
+        <v>0.5662318259441861</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.0001109897114592862</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.002785945513831933</v>
       </c>
       <c r="J7">
-        <v>0.01212275359123893</v>
+        <v>0.399018140636386</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.2868741253134921</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.0586148383295253</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,45 +731,51 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.6331412505072365</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0.7326073520694436</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.394993675522528</v>
+        <v>2.495379225895022</v>
       </c>
       <c r="C8">
-        <v>0.9141659635184851</v>
+        <v>0.8344259964945593</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.9569011961289675</v>
+        <v>0.7421794017586336</v>
       </c>
       <c r="F8">
-        <v>1.778670429350868</v>
+        <v>2.406676298462415</v>
       </c>
       <c r="G8">
-        <v>0.0007821805309912001</v>
+        <v>0.6444161116138361</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.001276425570665207</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.005186421322608936</v>
       </c>
       <c r="J8">
-        <v>0.01205238988288215</v>
+        <v>0.4287640490857285</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.2962791898540793</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.06783020366975379</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,45 +784,51 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.6309213153249829</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0.7169010333872023</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.55766260631151</v>
+        <v>3.351154290519162</v>
       </c>
       <c r="C9">
-        <v>1.209865522755422</v>
+        <v>1.115143932696242</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.265326501207227</v>
+        <v>0.9668430813581779</v>
       </c>
       <c r="F9">
-        <v>2.274706490098197</v>
+        <v>3.051021618484896</v>
       </c>
       <c r="G9">
-        <v>0.0007705160240865903</v>
+        <v>0.8093146021303141</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.006732701316301992</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.01185314067953858</v>
       </c>
       <c r="J9">
-        <v>0.01287742311030904</v>
+        <v>0.4935683441391205</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.3205254894361076</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.08632073138322482</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,45 +837,51 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.674062382801921</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0.6900203377128094</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.420635640375394</v>
+        <v>3.963149064127037</v>
       </c>
       <c r="C10">
-        <v>1.428849372079299</v>
+        <v>1.318548061336742</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1.498869567530022</v>
+        <v>1.097515233866304</v>
       </c>
       <c r="F10">
-        <v>2.668575652738866</v>
+        <v>3.466040648775476</v>
       </c>
       <c r="G10">
-        <v>0.0007622706489767705</v>
+        <v>0.9231514032535557</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.01275840880624424</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.01840631296439454</v>
       </c>
       <c r="J10">
-        <v>0.01421628621769955</v>
+        <v>0.5379608116113559</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.335860998554331</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.09482714962400962</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,45 +890,51 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.7415339497707407</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0.6795378622250894</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.816158734758176</v>
+        <v>4.114891263507275</v>
       </c>
       <c r="C11">
-        <v>1.529080711578445</v>
+        <v>1.346905526786827</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1.607136326786048</v>
+        <v>0.8604899408255164</v>
       </c>
       <c r="F11">
-        <v>2.855855451968011</v>
+        <v>3.097976007832443</v>
       </c>
       <c r="G11">
-        <v>0.0007585783414300769</v>
+        <v>0.8780208919657753</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.03058247814327686</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.02085021185899905</v>
       </c>
       <c r="J11">
-        <v>0.01502068441653392</v>
+        <v>0.5106352532267238</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.3083237654310622</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.06205455753578448</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,45 +943,51 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.7816778403683173</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0.7169754934937345</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.966451755927949</v>
+        <v>4.120324614934248</v>
       </c>
       <c r="C12">
-        <v>1.567145415567666</v>
+        <v>1.323693546360914</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1.648473699434888</v>
+        <v>0.659943560247541</v>
       </c>
       <c r="F12">
-        <v>2.928098675335832</v>
+        <v>2.723140077683667</v>
       </c>
       <c r="G12">
-        <v>0.0007571875099148251</v>
+        <v>0.8211950925510223</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.06793438760987414</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.02114644808824373</v>
       </c>
       <c r="J12">
-        <v>0.01535677101339772</v>
+        <v>0.4806697796344395</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.2848922735415726</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.04393261223502165</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,45 +996,51 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.7983944992708416</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0.7513322082705969</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.934058897918021</v>
+        <v>4.005091284867149</v>
       </c>
       <c r="C13">
-        <v>1.558942284271723</v>
+        <v>1.263093816990477</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1.639555057947646</v>
+        <v>0.4789243654704336</v>
       </c>
       <c r="F13">
-        <v>2.912478189773253</v>
+        <v>2.319979357295281</v>
       </c>
       <c r="G13">
-        <v>0.0007574867406906769</v>
+        <v>0.7473825203671538</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1218645224331283</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.0200324905424587</v>
       </c>
       <c r="J13">
-        <v>0.01528293094580135</v>
+        <v>0.4445089631177694</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.2606011382599824</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.03574635241168611</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,45 +1049,51 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.7947242352810235</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0.7866884104406324</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.828512507479502</v>
+        <v>3.868787704116755</v>
       </c>
       <c r="C14">
-        <v>1.532210000187092</v>
+        <v>1.204853304539995</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1.610530088953553</v>
+        <v>0.3661911991233211</v>
       </c>
       <c r="F14">
-        <v>2.861771432038921</v>
+        <v>2.029968374760884</v>
       </c>
       <c r="G14">
-        <v>0.0007584637756172241</v>
+        <v>0.6879390035902873</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1698278605535108</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.01872630448240997</v>
       </c>
       <c r="J14">
-        <v>0.01504768290603309</v>
+        <v>0.4162945928141681</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.2430434205530396</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.0359920984768145</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,45 +1102,51 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.783021817465297</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0.8125054803428924</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.763932528735211</v>
+        <v>3.808213024563997</v>
       </c>
       <c r="C15">
-        <v>1.515850592251013</v>
+        <v>1.183727478748665</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1.592797124568037</v>
+        <v>0.3396562756540362</v>
       </c>
       <c r="F15">
-        <v>2.830889558422825</v>
+        <v>1.950793173796001</v>
       </c>
       <c r="G15">
-        <v>0.0007590631639400987</v>
+        <v>0.6688725912904658</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1818308796087535</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.01820920943435489</v>
       </c>
       <c r="J15">
-        <v>0.01490779274477205</v>
+        <v>0.4076290065773946</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.2380324377061136</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.03675295078080332</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,45 +1155,51 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.7760559450424012</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0.8193391720602108</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.39485438023911</v>
+        <v>3.567682867599387</v>
       </c>
       <c r="C16">
-        <v>1.422313121945024</v>
+        <v>1.111238208282202</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>1.49183881733137</v>
+        <v>0.3268305381575374</v>
       </c>
       <c r="F16">
-        <v>2.656512790981054</v>
+        <v>1.865010439817127</v>
       </c>
       <c r="G16">
-        <v>0.0007625130403837235</v>
+        <v>0.6343131108339861</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1671565274577205</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.01563317713620904</v>
       </c>
       <c r="J16">
-        <v>0.01416792940796086</v>
+        <v>0.3953654349091238</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.2355357571135919</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.0353350823725318</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,45 +1208,51 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.7391136193735548</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0.8148178116516505</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.169255991760281</v>
+        <v>3.455325434683118</v>
       </c>
       <c r="C17">
-        <v>1.365102508184805</v>
+        <v>1.086531006500877</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>1.430455540531867</v>
+        <v>0.3734143742048559</v>
       </c>
       <c r="F17">
-        <v>2.551722349138316</v>
+        <v>1.94931833125726</v>
       </c>
       <c r="G17">
-        <v>0.0007646437051720631</v>
+        <v>0.6390227794429251</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1285824461080836</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.01439134103769479</v>
       </c>
       <c r="J17">
-        <v>0.01376638171488409</v>
+        <v>0.4008247301271979</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.242824293600485</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.03302362872667963</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,45 +1261,51 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.7189775842571891</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0.7980050047004994</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.039769593036851</v>
+        <v>3.444046494902523</v>
       </c>
       <c r="C18">
-        <v>1.332252940406136</v>
+        <v>1.098139088677073</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>1.395337128858344</v>
+        <v>0.4904431257023418</v>
       </c>
       <c r="F18">
-        <v>2.492202263610466</v>
+        <v>2.202274875878857</v>
       </c>
       <c r="G18">
-        <v>0.000765874787465962</v>
+        <v>0.6807021873348873</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07595600907833955</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.01384605028932384</v>
       </c>
       <c r="J18">
-        <v>0.01355358617369085</v>
+        <v>0.4233969068861256</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.2607926299125225</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.03501352981123063</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,45 +1314,51 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.7082752230673606</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0.7681417658551482</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.995971740545826</v>
+        <v>3.504687029747572</v>
       </c>
       <c r="C19">
-        <v>1.321139736485634</v>
+        <v>1.142526001311296</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>1.383477496875926</v>
+        <v>0.6805455703883396</v>
       </c>
       <c r="F19">
-        <v>2.472174479934665</v>
+        <v>2.588218477645441</v>
       </c>
       <c r="G19">
-        <v>0.000766292599759352</v>
+        <v>0.7453922656153651</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.03204080392797692</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.01434690585738441</v>
       </c>
       <c r="J19">
-        <v>0.01348455933805681</v>
+        <v>0.456043491907721</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.284036311739623</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.04826409090390094</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,45 +1367,51 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.7047981067607054</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0.7353238699817339</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.193242551580852</v>
+        <v>3.785015178974618</v>
       </c>
       <c r="C20">
-        <v>1.371186687227066</v>
+        <v>1.271373638296723</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1.436970148392675</v>
+        <v>1.065822376821018</v>
       </c>
       <c r="F20">
-        <v>2.562798482470043</v>
+        <v>3.345635931124178</v>
       </c>
       <c r="G20">
-        <v>0.0007644163220836121</v>
+        <v>0.8827932629235562</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.01095862177685181</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.01712402564460014</v>
       </c>
       <c r="J20">
-        <v>0.01380722380642396</v>
+        <v>0.5210017299718857</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.3263074057965838</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.09171692195124237</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,45 +1420,51 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.721029007672783</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0.6869430338755151</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.859499225983825</v>
+        <v>4.279012342241003</v>
       </c>
       <c r="C21">
-        <v>1.540058776955959</v>
+        <v>1.439794321556235</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1.619045816106905</v>
+        <v>1.223059406463236</v>
       </c>
       <c r="F21">
-        <v>2.876627941695915</v>
+        <v>3.77067614163559</v>
       </c>
       <c r="G21">
-        <v>0.0007581766057843872</v>
+        <v>0.9909316706555416</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.01692256171485518</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.02288243198243034</v>
       </c>
       <c r="J21">
-        <v>0.01511589786175094</v>
+        <v>0.5653884138440191</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.3458834028935911</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1063798826797608</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,45 +1473,51 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.7864166631633651</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0.6732122463607979</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.297999822755116</v>
+        <v>4.60253907132909</v>
       </c>
       <c r="C22">
-        <v>1.651074681579701</v>
+        <v>1.544137912210033</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1.740045494361084</v>
+        <v>1.305789321046717</v>
       </c>
       <c r="F22">
-        <v>3.089539796757833</v>
+        <v>4.021050405326775</v>
       </c>
       <c r="G22">
-        <v>0.0007541409560990075</v>
+        <v>1.061542253894459</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.02123083594243935</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.02678244690546538</v>
       </c>
       <c r="J22">
-        <v>0.01615651109538518</v>
+        <v>0.5944780024840668</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.3594763377656491</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1137224557393992</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,45 +1526,51 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0.8380659896358225</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0.6652415808186305</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.063650465976878</v>
+        <v>4.436272191564967</v>
       </c>
       <c r="C23">
-        <v>1.591756601257998</v>
+        <v>1.485725626243891</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1.675265243736106</v>
+        <v>1.259941282757723</v>
       </c>
       <c r="F23">
-        <v>2.975133462209413</v>
+        <v>3.890290454943027</v>
       </c>
       <c r="G23">
-        <v>0.0007562913573333789</v>
+        <v>1.027386805051037</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.018888664149741</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.02444406736818827</v>
       </c>
       <c r="J23">
-        <v>0.0155829444019524</v>
+        <v>0.5807307520073692</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.3541452785292094</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1100524062326542</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,45 +1579,51 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.8096283888775986</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0.6675455152555116</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.182397570938633</v>
+        <v>3.797348486668682</v>
       </c>
       <c r="C24">
-        <v>1.368435901934788</v>
+        <v>1.270857191423374</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1.434024363054135</v>
+        <v>1.08998643325863</v>
       </c>
       <c r="F24">
-        <v>2.557788715115493</v>
+        <v>3.395267409171112</v>
       </c>
       <c r="G24">
-        <v>0.0007645191026971362</v>
+        <v>0.8951811904051965</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.01112940727458506</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.01677575668741937</v>
       </c>
       <c r="J24">
-        <v>0.01378870309708446</v>
+        <v>0.5272962915392299</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.3320120136308304</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.09590399332736865</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,45 +1632,51 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.7200988480838646</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0.6811331203061783</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.241914341509016</v>
+        <v>3.110162835837002</v>
       </c>
       <c r="C25">
-        <v>1.129639363807769</v>
+        <v>1.042544250666481</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.180829938515316</v>
+        <v>0.9082767226767459</v>
       </c>
       <c r="F25">
-        <v>2.135881011096899</v>
+        <v>2.87068209837517</v>
       </c>
       <c r="G25">
-        <v>0.0007736108852331169</v>
+        <v>0.7583391052314852</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.004868613333625205</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.01008969520176883</v>
       </c>
       <c r="J25">
-        <v>0.01253690398929308</v>
+        <v>0.4727552930131367</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.3105888495985027</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.08091698778861556</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1685,13 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.6566380775554279</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0.6992177371505832</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_47/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_47/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.6199705100953</v>
+        <v>2.49938368797649</v>
       </c>
       <c r="C2">
-        <v>0.8703469437137414</v>
+        <v>0.9115594992027525</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.7714789775436941</v>
+        <v>0.8004429476497847</v>
       </c>
       <c r="F2">
-        <v>2.497949227199783</v>
+        <v>2.439524373660674</v>
       </c>
       <c r="G2">
-        <v>0.6702988918975308</v>
+        <v>0.5844666334983089</v>
       </c>
       <c r="H2">
-        <v>0.001796896339972376</v>
+        <v>0.001634277889173585</v>
       </c>
       <c r="I2">
-        <v>0.005747878777909943</v>
+        <v>0.005360019921870851</v>
       </c>
       <c r="J2">
-        <v>0.4392525526213262</v>
+        <v>0.4543437810620787</v>
       </c>
       <c r="K2">
-        <v>0.3013704742019172</v>
+        <v>0.2652391585521663</v>
       </c>
       <c r="L2">
-        <v>0.07062113666452063</v>
+        <v>0.1562788750134558</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.05961022600689247</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.06616917777607867</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.7110856620918042</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0.7468933081030613</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.278643414619239</v>
+        <v>2.18300367283581</v>
       </c>
       <c r="C3">
-        <v>0.758209749942921</v>
+        <v>0.7903931479033304</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.6814059842730273</v>
+        <v>0.705520357596086</v>
       </c>
       <c r="F3">
-        <v>2.243862317692177</v>
+        <v>2.196610652860571</v>
       </c>
       <c r="G3">
-        <v>0.6074470471898366</v>
+        <v>0.533238934734598</v>
       </c>
       <c r="H3">
-        <v>0.0005278395181655959</v>
+        <v>0.0004706849598206109</v>
       </c>
       <c r="I3">
-        <v>0.003641772194606041</v>
+        <v>0.003602601079648604</v>
       </c>
       <c r="J3">
-        <v>0.4150865401275894</v>
+        <v>0.4331028395330065</v>
       </c>
       <c r="K3">
-        <v>0.2932542019585682</v>
+        <v>0.2620510850771289</v>
       </c>
       <c r="L3">
-        <v>0.06332972065700559</v>
+        <v>0.1602773399693653</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.05383010572997016</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.05967891453606811</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7230872070329113</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0.7483639638716824</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.068538938498023</v>
+        <v>1.987720248478183</v>
       </c>
       <c r="C4">
-        <v>0.6898183330203267</v>
+        <v>0.7165649475278428</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.6262810993891677</v>
+        <v>0.647493915317618</v>
       </c>
       <c r="F4">
-        <v>2.088847272381528</v>
+        <v>2.048214923447617</v>
       </c>
       <c r="G4">
-        <v>0.5695067606979052</v>
+        <v>0.5023105628550155</v>
       </c>
       <c r="H4">
-        <v>0.0001133175643337481</v>
+        <v>9.588797580173392E-05</v>
       </c>
       <c r="I4">
-        <v>0.002600143028579804</v>
+        <v>0.002716570681686292</v>
       </c>
       <c r="J4">
-        <v>0.4006599678314728</v>
+        <v>0.4201079469169997</v>
       </c>
       <c r="K4">
-        <v>0.2885846697097882</v>
+        <v>0.2602595398439362</v>
       </c>
       <c r="L4">
-        <v>0.05884709742067074</v>
+        <v>0.1627516152236872</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.05090435878920729</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.05567456172110852</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7312261175842281</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0.7501456022770085</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.981212253623255</v>
+        <v>1.906399171354707</v>
       </c>
       <c r="C5">
-        <v>0.6626835116484528</v>
+        <v>0.6872400621640793</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.604256242122581</v>
+        <v>0.6243006237775148</v>
       </c>
       <c r="F5">
-        <v>2.025119691041652</v>
+        <v>1.987162507890758</v>
       </c>
       <c r="G5">
-        <v>0.5532775771703768</v>
+        <v>0.4889867776431629</v>
       </c>
       <c r="H5">
-        <v>3.028624442302785E-05</v>
+        <v>2.330283249873943E-05</v>
       </c>
       <c r="I5">
-        <v>0.002289685349090131</v>
+        <v>0.002469153778014821</v>
       </c>
       <c r="J5">
-        <v>0.3944101372940736</v>
+        <v>0.4143768480449523</v>
       </c>
       <c r="K5">
-        <v>0.2862516462621372</v>
+        <v>0.2591220809641861</v>
       </c>
       <c r="L5">
-        <v>0.0569554511160284</v>
+        <v>0.1635454139102599</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.04974704759585258</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.05397925499231704</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.7351195077709605</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0.7515244235844278</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.964796039061156</v>
+        <v>1.891075494710407</v>
       </c>
       <c r="C6">
-        <v>0.658962568983128</v>
+        <v>0.6831544442213158</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.6010949902198419</v>
+        <v>0.620940011778778</v>
       </c>
       <c r="F6">
-        <v>2.013605809566215</v>
+        <v>1.976131445920942</v>
       </c>
       <c r="G6">
-        <v>0.5494744836911565</v>
+        <v>0.4857604094928547</v>
       </c>
       <c r="H6">
-        <v>2.141755502682585E-05</v>
+        <v>1.58624409163366E-05</v>
       </c>
       <c r="I6">
-        <v>0.002316984649393561</v>
+        <v>0.00252364805465799</v>
       </c>
       <c r="J6">
-        <v>0.3928082996481805</v>
+        <v>0.4128831504447845</v>
       </c>
       <c r="K6">
-        <v>0.2852544247752071</v>
+        <v>0.2583925308066917</v>
       </c>
       <c r="L6">
-        <v>0.05656568196497602</v>
+        <v>0.1634108280241158</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.04941878626368457</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.05362757737773194</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.7362574461232825</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0.7523059500329978</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.062135178859023</v>
+        <v>1.979454018721015</v>
       </c>
       <c r="C7">
-        <v>0.6915858635141205</v>
+        <v>0.716640405597758</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.6273358071790511</v>
+        <v>0.6494323683083181</v>
       </c>
       <c r="F7">
-        <v>2.085405173379357</v>
+        <v>2.043215511448182</v>
       </c>
       <c r="G7">
-        <v>0.5662318259441861</v>
+        <v>0.5025340764878479</v>
       </c>
       <c r="H7">
-        <v>0.0001109897114592862</v>
+        <v>9.325114330360762E-05</v>
       </c>
       <c r="I7">
-        <v>0.002785945513831933</v>
+        <v>0.002942808157885501</v>
       </c>
       <c r="J7">
-        <v>0.399018140636386</v>
+        <v>0.412158870514105</v>
       </c>
       <c r="K7">
-        <v>0.2868741253134921</v>
+        <v>0.2581140589857718</v>
       </c>
       <c r="L7">
-        <v>0.0586148383295253</v>
+        <v>0.1617389479229274</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.05029366539058344</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.05532965977371873</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.7326073520694436</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0.7523584108127892</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.495379225895022</v>
+        <v>2.376433291452599</v>
       </c>
       <c r="C8">
-        <v>0.8344259964945593</v>
+        <v>0.8669273772003407</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.7421794017586336</v>
+        <v>0.7725186434289526</v>
       </c>
       <c r="F8">
-        <v>2.406676298462415</v>
+        <v>2.346611307320899</v>
       </c>
       <c r="G8">
-        <v>0.6444161116138361</v>
+        <v>0.5736890595549937</v>
       </c>
       <c r="H8">
-        <v>0.001276425570665207</v>
+        <v>0.001149481204709257</v>
       </c>
       <c r="I8">
-        <v>0.005186421322608936</v>
+        <v>0.004964451433008499</v>
       </c>
       <c r="J8">
-        <v>0.4287640490857285</v>
+        <v>0.4240563781602447</v>
       </c>
       <c r="K8">
-        <v>0.2962791898540793</v>
+        <v>0.2600329801241905</v>
       </c>
       <c r="L8">
-        <v>0.06783020366975379</v>
+        <v>0.1558512950816429</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.05619414792647603</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.06324192533287487</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.7169010333872023</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0.7517592824669563</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.351154290519162</v>
+        <v>3.16431375731139</v>
       </c>
       <c r="C9">
-        <v>1.115143932696242</v>
+        <v>1.169062050422895</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.9668430813581779</v>
+        <v>1.01062774850466</v>
       </c>
       <c r="F9">
-        <v>3.051021618484896</v>
+        <v>2.959765003281859</v>
       </c>
       <c r="G9">
-        <v>0.8093146021303141</v>
+        <v>0.7115852303240615</v>
       </c>
       <c r="H9">
-        <v>0.006732701316301992</v>
+        <v>0.006166680538042923</v>
       </c>
       <c r="I9">
-        <v>0.01185314067953858</v>
+        <v>0.01030350484865661</v>
       </c>
       <c r="J9">
-        <v>0.4935683441391205</v>
+        <v>0.4733082622627052</v>
       </c>
       <c r="K9">
-        <v>0.3205254894361076</v>
+        <v>0.2702847238974648</v>
       </c>
       <c r="L9">
-        <v>0.08632073138322482</v>
+        <v>0.1467460478541831</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.07436780030719703</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.07949800800688678</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.6900203377128094</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0.7524515164846264</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.963149064127037</v>
+        <v>3.712002980306067</v>
       </c>
       <c r="C10">
-        <v>1.318548061336742</v>
+        <v>1.377649903859719</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1.097515233866304</v>
+        <v>1.155590099352608</v>
       </c>
       <c r="F10">
-        <v>3.466040648775476</v>
+        <v>3.342232455618557</v>
       </c>
       <c r="G10">
-        <v>0.9231514032535557</v>
+        <v>0.8257830817615712</v>
       </c>
       <c r="H10">
-        <v>0.01275840880624424</v>
+        <v>0.01168770712236356</v>
       </c>
       <c r="I10">
-        <v>0.01840631296439454</v>
+        <v>0.01544957415492565</v>
       </c>
       <c r="J10">
-        <v>0.5379608116113559</v>
+        <v>0.4693615331077154</v>
       </c>
       <c r="K10">
-        <v>0.335860998554331</v>
+        <v>0.2718689015458153</v>
       </c>
       <c r="L10">
-        <v>0.09482714962400962</v>
+        <v>0.1376368576702092</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.08810750138119161</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.08596322598757311</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.6795378622250894</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0.767964371650848</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.114891263507275</v>
+        <v>3.829050024748824</v>
       </c>
       <c r="C11">
-        <v>1.346905526786827</v>
+        <v>1.383841900022162</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.8604899408255164</v>
+        <v>0.9198272006873367</v>
       </c>
       <c r="F11">
-        <v>3.097976007832443</v>
+        <v>2.961759615525693</v>
       </c>
       <c r="G11">
-        <v>0.8780208919657753</v>
+        <v>0.8261885492733398</v>
       </c>
       <c r="H11">
-        <v>0.03058247814327686</v>
+        <v>0.02942314352073794</v>
       </c>
       <c r="I11">
-        <v>0.02085021185899905</v>
+        <v>0.01739542667388605</v>
       </c>
       <c r="J11">
-        <v>0.5106352532267238</v>
+        <v>0.3761949165519525</v>
       </c>
       <c r="K11">
-        <v>0.3083237654310622</v>
+        <v>0.2410077178635497</v>
       </c>
       <c r="L11">
-        <v>0.06205455753578448</v>
+        <v>0.1226985606711963</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.08135522356998592</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.05563902850601821</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.7169754934937345</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0.8294064427986285</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.120324614934248</v>
+        <v>3.82703231297819</v>
       </c>
       <c r="C12">
-        <v>1.323693546360914</v>
+        <v>1.347340385995039</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.659943560247541</v>
+        <v>0.7127378710562766</v>
       </c>
       <c r="F12">
-        <v>2.723140077683667</v>
+        <v>2.590597228023967</v>
       </c>
       <c r="G12">
-        <v>0.8211950925510223</v>
+        <v>0.7940884927043754</v>
       </c>
       <c r="H12">
-        <v>0.06793438760987414</v>
+        <v>0.06681718680663096</v>
       </c>
       <c r="I12">
-        <v>0.02114644808824373</v>
+        <v>0.01755362767840563</v>
       </c>
       <c r="J12">
-        <v>0.4806697796344395</v>
+        <v>0.3258637060953333</v>
       </c>
       <c r="K12">
-        <v>0.2848922735415726</v>
+        <v>0.2198064125127317</v>
       </c>
       <c r="L12">
-        <v>0.04393261223502165</v>
+        <v>0.1140813431746714</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.07447180106586515</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.04081202489776636</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.7513322082705969</v>
+        <v>0</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0.8752968484141661</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.005091284867149</v>
+        <v>3.731512666723631</v>
       </c>
       <c r="C13">
-        <v>1.263093816990477</v>
+        <v>1.283584400038137</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.4789243654704336</v>
+        <v>0.5189074533914351</v>
       </c>
       <c r="F13">
-        <v>2.319979357295281</v>
+        <v>2.205703751958239</v>
       </c>
       <c r="G13">
-        <v>0.7473825203671538</v>
+        <v>0.7232291140960996</v>
       </c>
       <c r="H13">
-        <v>0.1218645224331283</v>
+        <v>0.1208948855102392</v>
       </c>
       <c r="I13">
-        <v>0.0200324905424587</v>
+        <v>0.01670055515376756</v>
       </c>
       <c r="J13">
-        <v>0.4445089631177694</v>
+        <v>0.3084976225034524</v>
       </c>
       <c r="K13">
-        <v>0.2606011382599824</v>
+        <v>0.2033783981596535</v>
       </c>
       <c r="L13">
-        <v>0.03574635241168611</v>
+        <v>0.1088390652592874</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.06684269746395444</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.03613843703164132</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.7866884104406324</v>
+        <v>0</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0.9095968110998314</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.868787704116755</v>
+        <v>3.620799738017411</v>
       </c>
       <c r="C14">
-        <v>1.204853304539995</v>
+        <v>1.227271705203009</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.3661911991233211</v>
+        <v>0.3957052595914305</v>
       </c>
       <c r="F14">
-        <v>2.029968374760884</v>
+        <v>1.933586957512944</v>
       </c>
       <c r="G14">
-        <v>0.6879390035902873</v>
+        <v>0.6573925006551349</v>
       </c>
       <c r="H14">
-        <v>0.1698278605535108</v>
+        <v>0.1689951038294737</v>
       </c>
       <c r="I14">
-        <v>0.01872630448240997</v>
+        <v>0.01575740421219329</v>
       </c>
       <c r="J14">
-        <v>0.4162945928141681</v>
+        <v>0.3086237708315878</v>
       </c>
       <c r="K14">
-        <v>0.2430434205530396</v>
+        <v>0.1935032908891792</v>
       </c>
       <c r="L14">
-        <v>0.0359920984768145</v>
+        <v>0.1063710978496708</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.06110092244047038</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.03851389037603425</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.8125054803428924</v>
+        <v>0</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0.9286218506582458</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.808213024563997</v>
+        <v>3.571720805357643</v>
       </c>
       <c r="C15">
-        <v>1.183727478748665</v>
+        <v>1.208290904172088</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.3396562756540362</v>
+        <v>0.3659738430014059</v>
       </c>
       <c r="F15">
-        <v>1.950793173796001</v>
+        <v>1.861051137368008</v>
       </c>
       <c r="G15">
-        <v>0.6688725912904658</v>
+        <v>0.6334469127951223</v>
       </c>
       <c r="H15">
-        <v>0.1818308796087535</v>
+        <v>0.1810529878159173</v>
       </c>
       <c r="I15">
-        <v>0.01820920943435489</v>
+        <v>0.01543054229738949</v>
       </c>
       <c r="J15">
-        <v>0.4076290065773946</v>
+        <v>0.3135830115929963</v>
       </c>
       <c r="K15">
-        <v>0.2380324377061136</v>
+        <v>0.191400851785243</v>
       </c>
       <c r="L15">
-        <v>0.03675295078080332</v>
+        <v>0.1061700875187093</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.05933001226312484</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.03966827167139719</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.8193391720602108</v>
+        <v>0</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0.9312708752335936</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.567682867599387</v>
+        <v>3.375560799345067</v>
       </c>
       <c r="C16">
-        <v>1.111238208282202</v>
+        <v>1.14913351409615</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.3268305381575374</v>
+        <v>0.3466101110233808</v>
       </c>
       <c r="F16">
-        <v>1.865010439817127</v>
+        <v>1.795467929667495</v>
       </c>
       <c r="G16">
-        <v>0.6343131108339861</v>
+        <v>0.5717971735290348</v>
       </c>
       <c r="H16">
-        <v>0.1671565274577205</v>
+        <v>0.1665894216622661</v>
       </c>
       <c r="I16">
-        <v>0.01563317713620904</v>
+        <v>0.01358277053535151</v>
       </c>
       <c r="J16">
-        <v>0.3953654349091238</v>
+        <v>0.3595763618088768</v>
       </c>
       <c r="K16">
-        <v>0.2355357571135919</v>
+        <v>0.1973095003585605</v>
       </c>
       <c r="L16">
-        <v>0.0353350823725318</v>
+        <v>0.1111939702518399</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.05696629047592339</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.03756292643512893</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.8148178116516505</v>
+        <v>0</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0.9049479589793918</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.455325434683118</v>
+        <v>3.280036584716584</v>
       </c>
       <c r="C17">
-        <v>1.086531006500877</v>
+        <v>1.131209480026598</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.3734143742048559</v>
+        <v>0.3932348900980855</v>
       </c>
       <c r="F17">
-        <v>1.94931833125726</v>
+        <v>1.885049985913341</v>
       </c>
       <c r="G17">
-        <v>0.6390227794429251</v>
+        <v>0.5630244486023059</v>
       </c>
       <c r="H17">
-        <v>0.1285824461080836</v>
+        <v>0.1280995263798417</v>
       </c>
       <c r="I17">
-        <v>0.01439134103769479</v>
+        <v>0.01268259782349102</v>
       </c>
       <c r="J17">
-        <v>0.4008247301271979</v>
+        <v>0.3898979085743548</v>
       </c>
       <c r="K17">
-        <v>0.242824293600485</v>
+        <v>0.2065616590619825</v>
       </c>
       <c r="L17">
-        <v>0.03302362872667963</v>
+        <v>0.1164236741126317</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.05783231248047827</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.03411193493784825</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.7980050047004994</v>
+        <v>0</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0.8775889530192416</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.444046494902523</v>
+        <v>3.269207185997118</v>
       </c>
       <c r="C18">
-        <v>1.098139088677073</v>
+        <v>1.148580832099128</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.4904431257023418</v>
+        <v>0.514712616143612</v>
       </c>
       <c r="F18">
-        <v>2.202274875878857</v>
+        <v>2.134077205104944</v>
       </c>
       <c r="G18">
-        <v>0.6807021873348873</v>
+        <v>0.5936434630521461</v>
       </c>
       <c r="H18">
-        <v>0.07595600907833955</v>
+        <v>0.07547247319140382</v>
       </c>
       <c r="I18">
-        <v>0.01384605028932384</v>
+        <v>0.01218680135630024</v>
       </c>
       <c r="J18">
-        <v>0.4233969068861256</v>
+        <v>0.4207753886120571</v>
       </c>
       <c r="K18">
-        <v>0.2607926299125225</v>
+        <v>0.2221439763319246</v>
       </c>
       <c r="L18">
-        <v>0.03501352981123063</v>
+        <v>0.1233367016778892</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.06235804175531001</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.03435245722897573</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.7681417658551482</v>
+        <v>0</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0.8426170434634344</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.504687029747572</v>
+        <v>3.31984883558772</v>
       </c>
       <c r="C19">
-        <v>1.142526001311296</v>
+        <v>1.199067906632081</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.6805455703883396</v>
+        <v>0.712608049083002</v>
       </c>
       <c r="F19">
-        <v>2.588218477645441</v>
+        <v>2.509759989642561</v>
       </c>
       <c r="G19">
-        <v>0.7453922656153651</v>
+        <v>0.6475818622091651</v>
       </c>
       <c r="H19">
-        <v>0.03204080392797692</v>
+        <v>0.03147830254354744</v>
       </c>
       <c r="I19">
-        <v>0.01434690585738441</v>
+        <v>0.0126307600898663</v>
       </c>
       <c r="J19">
-        <v>0.456043491907721</v>
+        <v>0.4522376553121887</v>
       </c>
       <c r="K19">
-        <v>0.284036311739623</v>
+        <v>0.2403604322870372</v>
       </c>
       <c r="L19">
-        <v>0.04826409090390094</v>
+        <v>0.1305717433201039</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.06898014711852696</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.04525507853788291</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.7353238699817339</v>
+        <v>0</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0.8082640577649585</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.785015178974618</v>
+        <v>3.560489883717423</v>
       </c>
       <c r="C20">
-        <v>1.271373638296723</v>
+        <v>1.335289406557877</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1.065822376821018</v>
+        <v>1.1166634885127</v>
       </c>
       <c r="F20">
-        <v>3.345635931124178</v>
+        <v>3.237228305142878</v>
       </c>
       <c r="G20">
-        <v>0.8827932629235562</v>
+        <v>0.7744793588350092</v>
       </c>
       <c r="H20">
-        <v>0.01095862177685181</v>
+        <v>0.01005803188138232</v>
       </c>
       <c r="I20">
-        <v>0.01712402564460014</v>
+        <v>0.0147952295136129</v>
       </c>
       <c r="J20">
-        <v>0.5210017299718857</v>
+        <v>0.487698660038447</v>
       </c>
       <c r="K20">
-        <v>0.3263074057965838</v>
+        <v>0.2691123614777311</v>
       </c>
       <c r="L20">
-        <v>0.09171692195124237</v>
+        <v>0.1391599540318751</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.08342245772751156</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.08394117977712412</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.6869430338755151</v>
+        <v>0</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0.7662913164987373</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.279012342241003</v>
+        <v>3.956529021751351</v>
       </c>
       <c r="C21">
-        <v>1.439794321556235</v>
+        <v>1.475919000182273</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1.223059406463236</v>
+        <v>1.305892189362723</v>
       </c>
       <c r="F21">
-        <v>3.77067614163559</v>
+        <v>3.599968461077168</v>
       </c>
       <c r="G21">
-        <v>0.9909316706555416</v>
+        <v>0.9448707888496415</v>
       </c>
       <c r="H21">
-        <v>0.01692256171485518</v>
+        <v>0.01540515561681477</v>
       </c>
       <c r="I21">
-        <v>0.02288243198243034</v>
+        <v>0.01898026225020466</v>
       </c>
       <c r="J21">
-        <v>0.5653884138440191</v>
+        <v>0.3860417484386716</v>
       </c>
       <c r="K21">
-        <v>0.3458834028935911</v>
+        <v>0.2645368279034379</v>
       </c>
       <c r="L21">
-        <v>0.1063798826797608</v>
+        <v>0.130342944062221</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.092233784193688</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.09372264110895756</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.6732122463607979</v>
+        <v>0</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0.7888939580019496</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.60253907132909</v>
+        <v>4.211327911054809</v>
       </c>
       <c r="C22">
-        <v>1.544137912210033</v>
+        <v>1.558628182608288</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1.305789321046717</v>
+        <v>1.410992090338212</v>
       </c>
       <c r="F22">
-        <v>4.021050405326775</v>
+        <v>3.806676305300698</v>
       </c>
       <c r="G22">
-        <v>1.061542253894459</v>
+        <v>1.065264602535962</v>
       </c>
       <c r="H22">
-        <v>0.02123083594243935</v>
+        <v>0.01924764518266309</v>
       </c>
       <c r="I22">
-        <v>0.02678244690546538</v>
+        <v>0.02163970205505095</v>
       </c>
       <c r="J22">
-        <v>0.5944780024840668</v>
+        <v>0.3216985058472233</v>
       </c>
       <c r="K22">
-        <v>0.3594763377656491</v>
+        <v>0.2612712159570307</v>
       </c>
       <c r="L22">
-        <v>0.1137224557393992</v>
+        <v>0.1246636846449505</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.09815447691507728</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.0977864526871528</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0.6652415808186305</v>
+        <v>0</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0.8067698237309315</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.436272191564967</v>
+        <v>4.087591742548625</v>
       </c>
       <c r="C23">
-        <v>1.485725626243891</v>
+        <v>1.516454688898591</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1.259941282757723</v>
+        <v>1.350478296079302</v>
       </c>
       <c r="F23">
-        <v>3.890290454943027</v>
+        <v>3.703829827432827</v>
       </c>
       <c r="G23">
-        <v>1.027386805051037</v>
+        <v>0.9946010314741898</v>
       </c>
       <c r="H23">
-        <v>0.018888664149741</v>
+        <v>0.0171741986806293</v>
       </c>
       <c r="I23">
-        <v>0.02444406736818827</v>
+        <v>0.01993678285302369</v>
       </c>
       <c r="J23">
-        <v>0.5807307520073692</v>
+        <v>0.3693748144123106</v>
       </c>
       <c r="K23">
-        <v>0.3541452785292094</v>
+        <v>0.2661708870155763</v>
       </c>
       <c r="L23">
-        <v>0.1100524062326542</v>
+        <v>0.1287368530137805</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.09631130872009308</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.09619783120950842</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0.6675455152555116</v>
+        <v>0</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0.792360798127703</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.797348486668682</v>
+        <v>3.571719878389672</v>
       </c>
       <c r="C24">
-        <v>1.270857191423374</v>
+        <v>1.335576811800536</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1.08998643325863</v>
+        <v>1.141643612305373</v>
       </c>
       <c r="F24">
-        <v>3.395267409171112</v>
+        <v>3.285699716008622</v>
       </c>
       <c r="G24">
-        <v>0.8951811904051965</v>
+        <v>0.7847694087464419</v>
       </c>
       <c r="H24">
-        <v>0.01112940727458506</v>
+        <v>0.01021444864861855</v>
       </c>
       <c r="I24">
-        <v>0.01677575668741937</v>
+        <v>0.01433335613431375</v>
       </c>
       <c r="J24">
-        <v>0.5272962915392299</v>
+        <v>0.4944001065887846</v>
       </c>
       <c r="K24">
-        <v>0.3320120136308304</v>
+        <v>0.2738655833844774</v>
       </c>
       <c r="L24">
-        <v>0.09590399332736865</v>
+        <v>0.1410161534621786</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.08515917551119756</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.08779834821575605</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0.6811331203061783</v>
+        <v>0</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0.7594481686435159</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.110162835837002</v>
+        <v>2.946057628155529</v>
       </c>
       <c r="C25">
-        <v>1.042544250666481</v>
+        <v>1.093020734190929</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.9082767226767459</v>
+        <v>0.9470017701993072</v>
       </c>
       <c r="F25">
-        <v>2.87068209837517</v>
+        <v>2.790828621066737</v>
       </c>
       <c r="G25">
-        <v>0.7583391052314852</v>
+        <v>0.6639246597819266</v>
       </c>
       <c r="H25">
-        <v>0.004868613333625205</v>
+        <v>0.004456204363521898</v>
       </c>
       <c r="I25">
-        <v>0.01008969520176883</v>
+        <v>0.009072521949858192</v>
       </c>
       <c r="J25">
-        <v>0.4727552930131367</v>
+        <v>0.4662739037639909</v>
       </c>
       <c r="K25">
-        <v>0.3105888495985027</v>
+        <v>0.2656419751139438</v>
       </c>
       <c r="L25">
-        <v>0.08091698778861556</v>
+        <v>0.1485236497766707</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.06827614878987021</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.07493961807178806</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0.6992177371505832</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.7534075733944547</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
